--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2707925.777049393</v>
+        <v>2707925.777049392</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>780027.6496248821</v>
+        <v>171744.0966982728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1960768.86678541</v>
+        <v>1960768.866785408</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8898364.490175961</v>
+        <v>8898364.490175962</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>339.1590223244928</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>312.5026489522693</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229328</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984498</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>94.63926978364034</v>
+        <v>189.0559928569238</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14.44900728083867</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1029,7 +1029,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.769908071584585</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>201.0891638436811</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>372.5327915267488</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.5915391489351</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.2878830397171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>412.4910609640207</v>
       </c>
       <c r="H11" t="n">
-        <v>105.0373384232799</v>
+        <v>310.6797196366668</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>251.1207187837473</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.109877256748</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0137685375423</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>117.5221105791805</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>202.0369503781859</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>251.6501462210216</v>
       </c>
       <c r="W13" t="n">
-        <v>67.60031506270376</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,10 +1622,10 @@
         <v>412.4910609640207</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>310.6797196366668</v>
       </c>
       <c r="I14" t="n">
-        <v>102.0787293335682</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>144.9489901777261</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>185.7618773821205</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.1207187837473</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>122.109877256748</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0137685375423</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>31.48363517090437</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>202.0369503781859</v>
       </c>
       <c r="T16" t="n">
         <v>222.5567347597215</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.250235467105</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>164.9325145390783</v>
       </c>
     </row>
     <row r="17">
@@ -1850,16 +1850,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>270.2975698053902</v>
       </c>
       <c r="G17" t="n">
         <v>412.4910609640207</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>310.6797196366668</v>
       </c>
       <c r="I17" t="n">
         <v>102.0787293335682</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>144.948990177726</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.7877354616281</v>
@@ -1901,10 +1901,10 @@
         <v>251.1207187837473</v>
       </c>
       <c r="V17" t="n">
-        <v>324.2151106379055</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>97.70630459799145</v>
       </c>
       <c r="I18" t="n">
-        <v>37.60110780043215</v>
+        <v>37.60110780043216</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.754337003380144</v>
+        <v>6.754337003380158</v>
       </c>
       <c r="S18" t="n">
         <v>143.7399802005369</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.803903001063</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>120.5842952267485</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.0369503781859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.5567347597215</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.250235467105</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>78.73357432509314</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2081,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>56.49809720538127</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,10 +2096,10 @@
         <v>412.4910609640207</v>
       </c>
       <c r="H20" t="n">
-        <v>310.6797196366668</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>102.0787293335682</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>144.9489901777261</v>
+        <v>105.0373384232795</v>
       </c>
       <c r="T20" t="n">
-        <v>210.7877354616281</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.1207187837473</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>166.7297580530511</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.0137685375423</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>117.5221105791805</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>120.5842952267485</v>
       </c>
       <c r="S22" t="n">
-        <v>202.0369503781859</v>
+        <v>40.78604645149951</v>
       </c>
       <c r="T22" t="n">
-        <v>222.5567347597215</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.31534862930431</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>310.6797196366668</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>102.0787293335682</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>20.0311479231797</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>45.47833757036017</v>
+        <v>251.1207187837473</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7297580530511</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.0137685375423</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.0369503781859</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.5567347597215</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.250235467105</v>
+        <v>159.4613025831001</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.49855189250847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>56.49809720538127</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.4910609640207</v>
       </c>
       <c r="H26" t="n">
         <v>310.6797196366668</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>98.27419349512461</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>14.60899484762421</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.7297580530511</v>
@@ -2734,7 +2734,7 @@
         <v>117.5221105791805</v>
       </c>
       <c r="J28" t="n">
-        <v>4.190833824350833</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>120.5842952267485</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>202.0369503781859</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.5567347597215</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>81.72764016484868</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>338.5033192510599</v>
       </c>
       <c r="C29" t="n">
-        <v>321.0423693585869</v>
+        <v>321.0423693585868</v>
       </c>
       <c r="D29" t="n">
         <v>310.4525192082623</v>
@@ -2804,13 +2804,13 @@
         <v>362.6455233292908</v>
       </c>
       <c r="G29" t="n">
-        <v>368.2605385515998</v>
+        <v>368.2605385516</v>
       </c>
       <c r="H29" t="n">
         <v>266.4491972242462</v>
       </c>
       <c r="I29" t="n">
-        <v>57.84820692114758</v>
+        <v>57.84820692114864</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>100.7184677653058</v>
+        <v>100.7184677653054</v>
       </c>
       <c r="T29" t="n">
-        <v>166.5572130492075</v>
+        <v>166.5572130492074</v>
       </c>
       <c r="U29" t="n">
-        <v>206.8901963713269</v>
+        <v>206.8901963713267</v>
       </c>
       <c r="V29" t="n">
-        <v>283.5217360577143</v>
+        <v>283.5217360577142</v>
       </c>
       <c r="W29" t="n">
         <v>305.0104463049923</v>
@@ -2858,7 +2858,7 @@
         <v>325.5005782660484</v>
       </c>
       <c r="Y29" t="n">
-        <v>342.007416243633</v>
+        <v>342.0074162436329</v>
       </c>
     </row>
     <row r="30">
@@ -2953,16 +2953,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>104.3849506057917</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>101.1905256105106</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>122.4992356406305</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>76.35377281432783</v>
+        <v>16.42451265533359</v>
       </c>
       <c r="S31" t="n">
-        <v>157.8064279657653</v>
+        <v>157.8064279657652</v>
       </c>
       <c r="T31" t="n">
         <v>178.3262123473008</v>
       </c>
       <c r="U31" t="n">
-        <v>242.0197130546844</v>
+        <v>242.0197130546843</v>
       </c>
       <c r="V31" t="n">
-        <v>28.67305010706266</v>
+        <v>207.9071209114073</v>
       </c>
       <c r="W31" t="n">
-        <v>242.2924759241704</v>
+        <v>242.2924759241703</v>
       </c>
       <c r="X31" t="n">
         <v>181.4791329766165</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>338.50331925106</v>
+        <v>338.5033192510599</v>
       </c>
       <c r="C32" t="n">
-        <v>321.0423693585869</v>
+        <v>321.0423693585868</v>
       </c>
       <c r="D32" t="n">
-        <v>310.4525192082624</v>
+        <v>310.4525192082623</v>
       </c>
       <c r="E32" t="n">
-        <v>337.6998476598412</v>
+        <v>337.6998476598411</v>
       </c>
       <c r="F32" t="n">
         <v>362.6455233292908</v>
       </c>
       <c r="G32" t="n">
-        <v>368.2605385516001</v>
+        <v>368.2605385516</v>
       </c>
       <c r="H32" t="n">
-        <v>266.4491972242463</v>
+        <v>266.4491972242472</v>
       </c>
       <c r="I32" t="n">
-        <v>57.84820692114761</v>
+        <v>57.84820692114752</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>100.7184677653055</v>
+        <v>100.7184677653058</v>
       </c>
       <c r="T32" t="n">
-        <v>166.5572130492075</v>
+        <v>166.5572130492074</v>
       </c>
       <c r="U32" t="n">
-        <v>206.8901963713267</v>
+        <v>206.890196371326</v>
       </c>
       <c r="V32" t="n">
-        <v>283.5217360577143</v>
+        <v>283.5217360577142</v>
       </c>
       <c r="W32" t="n">
-        <v>305.0104463049924</v>
+        <v>305.0104463049923</v>
       </c>
       <c r="X32" t="n">
         <v>325.5005782660484</v>
       </c>
       <c r="Y32" t="n">
-        <v>342.007416243633</v>
+        <v>342.0074162436329</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>135.6014577695166</v>
       </c>
       <c r="C34" t="n">
-        <v>123.0162986862072</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>42.36416785937916</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>122.4992356406305</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>106.7832461251217</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>73.29158816675987</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>76.35377281432785</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.8064279657653</v>
+        <v>157.8064279657652</v>
       </c>
       <c r="T34" t="n">
-        <v>178.3262123473009</v>
+        <v>178.3262123473008</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>227.2277185462931</v>
       </c>
       <c r="V34" t="n">
-        <v>207.9071209114074</v>
+        <v>207.9071209114073</v>
       </c>
       <c r="W34" t="n">
-        <v>242.2924759241704</v>
+        <v>242.2924759241703</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>181.4791329766165</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3541309396742</v>
+        <v>174.3541309396741</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>338.50331925106</v>
+        <v>338.5033192510599</v>
       </c>
       <c r="C35" t="n">
-        <v>321.0423693585869</v>
+        <v>321.0423693585868</v>
       </c>
       <c r="D35" t="n">
         <v>310.4525192082623</v>
       </c>
       <c r="E35" t="n">
-        <v>337.6998476598412</v>
+        <v>337.6998476598411</v>
       </c>
       <c r="F35" t="n">
         <v>362.6455233292908</v>
       </c>
       <c r="G35" t="n">
-        <v>368.2605385516001</v>
+        <v>368.2605385516</v>
       </c>
       <c r="H35" t="n">
         <v>266.4491972242462</v>
       </c>
       <c r="I35" t="n">
-        <v>57.84820692114886</v>
+        <v>57.84820692114864</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>100.7184677653058</v>
+        <v>100.7184677653054</v>
       </c>
       <c r="T35" t="n">
-        <v>166.5572130492075</v>
+        <v>166.5572130492074</v>
       </c>
       <c r="U35" t="n">
-        <v>206.8901963713246</v>
+        <v>206.8901963713267</v>
       </c>
       <c r="V35" t="n">
-        <v>283.5217360577143</v>
+        <v>283.5217360577142</v>
       </c>
       <c r="W35" t="n">
-        <v>305.0104463049924</v>
+        <v>305.0104463049923</v>
       </c>
       <c r="X35" t="n">
         <v>325.5005782660484</v>
       </c>
       <c r="Y35" t="n">
-        <v>342.007416243633</v>
+        <v>342.0074162436329</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>135.6014577695167</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>123.0162986862071</v>
       </c>
       <c r="D37" t="n">
         <v>104.3849506057917</v>
       </c>
       <c r="E37" t="n">
-        <v>102.2034402341486</v>
+        <v>102.2034402341485</v>
       </c>
       <c r="F37" t="n">
-        <v>101.1905256105106</v>
+        <v>101.1905256105105</v>
       </c>
       <c r="G37" t="n">
-        <v>122.4992356406305</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>106.7832461251217</v>
+        <v>106.7832461251216</v>
       </c>
       <c r="I37" t="n">
-        <v>73.29158816675987</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>178.3262123473009</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>242.0197130546844</v>
+        <v>242.0197130546843</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>207.9071209114073</v>
       </c>
       <c r="W37" t="n">
-        <v>157.2151748496622</v>
+        <v>242.2924759241703</v>
       </c>
       <c r="X37" t="n">
-        <v>181.4791329766165</v>
+        <v>100.8427752890282</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>174.3541309396741</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>338.50331925106</v>
+        <v>338.5033192510599</v>
       </c>
       <c r="C38" t="n">
-        <v>321.0423693585869</v>
+        <v>321.0423693585868</v>
       </c>
       <c r="D38" t="n">
         <v>310.4525192082623</v>
       </c>
       <c r="E38" t="n">
-        <v>337.6998476598412</v>
+        <v>337.6998476598411</v>
       </c>
       <c r="F38" t="n">
-        <v>362.6455233292905</v>
+        <v>362.6455233292908</v>
       </c>
       <c r="G38" t="n">
-        <v>368.2605385516001</v>
+        <v>368.2605385516</v>
       </c>
       <c r="H38" t="n">
-        <v>266.4491972242463</v>
+        <v>266.4491972242462</v>
       </c>
       <c r="I38" t="n">
-        <v>57.84820692114761</v>
+        <v>57.84820692114752</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>100.7184677653055</v>
+        <v>100.7184677653067</v>
       </c>
       <c r="T38" t="n">
-        <v>166.5572130492075</v>
+        <v>166.5572130492074</v>
       </c>
       <c r="U38" t="n">
         <v>206.8901963713267</v>
       </c>
       <c r="V38" t="n">
-        <v>283.5217360577143</v>
+        <v>283.5217360577142</v>
       </c>
       <c r="W38" t="n">
-        <v>305.0104463049924</v>
+        <v>305.0104463049923</v>
       </c>
       <c r="X38" t="n">
         <v>325.5005782660484</v>
       </c>
       <c r="Y38" t="n">
-        <v>342.007416243633</v>
+        <v>342.0074162436329</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.6014577695167</v>
+        <v>135.6014577695166</v>
       </c>
       <c r="C40" t="n">
-        <v>123.0162986862072</v>
+        <v>123.0162986862071</v>
       </c>
       <c r="D40" t="n">
         <v>104.3849506057917</v>
       </c>
       <c r="E40" t="n">
-        <v>102.2034402341486</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>101.1905256105106</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>106.7832461251217</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>73.29158816675987</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.8064279657653</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>93.93939651267591</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>242.0197130546843</v>
       </c>
       <c r="V40" t="n">
-        <v>207.9071209114074</v>
+        <v>207.9071209114073</v>
       </c>
       <c r="W40" t="n">
-        <v>242.2924759241704</v>
+        <v>242.2924759241703</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>181.4791329766165</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.5171453813443</v>
+        <v>174.3541309396741</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>338.50331925106</v>
+        <v>338.5033192510599</v>
       </c>
       <c r="C41" t="n">
-        <v>321.042369358587</v>
+        <v>321.0423693585868</v>
       </c>
       <c r="D41" t="n">
         <v>310.4525192082623</v>
       </c>
       <c r="E41" t="n">
-        <v>337.6998476598412</v>
+        <v>337.6998476598411</v>
       </c>
       <c r="F41" t="n">
         <v>362.6455233292908</v>
       </c>
       <c r="G41" t="n">
-        <v>368.2605385516001</v>
+        <v>368.2605385516</v>
       </c>
       <c r="H41" t="n">
-        <v>266.4491972242463</v>
+        <v>266.4491972242462</v>
       </c>
       <c r="I41" t="n">
-        <v>57.84820692114761</v>
+        <v>57.84820692114864</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>100.7184677653055</v>
+        <v>100.7184677653054</v>
       </c>
       <c r="T41" t="n">
-        <v>166.5572130492075</v>
+        <v>166.5572130492074</v>
       </c>
       <c r="U41" t="n">
         <v>206.8901963713267</v>
       </c>
       <c r="V41" t="n">
-        <v>283.5217360577143</v>
+        <v>283.5217360577142</v>
       </c>
       <c r="W41" t="n">
-        <v>305.0104463049924</v>
+        <v>305.0104463049923</v>
       </c>
       <c r="X41" t="n">
         <v>325.5005782660484</v>
       </c>
       <c r="Y41" t="n">
-        <v>342.007416243633</v>
+        <v>342.0074162436329</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>135.6014577695166</v>
       </c>
       <c r="C43" t="n">
-        <v>123.0162986862072</v>
+        <v>123.0162986862071</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>102.2034402341486</v>
+        <v>102.2034402341485</v>
       </c>
       <c r="F43" t="n">
-        <v>101.1905256105106</v>
+        <v>43.69882515056899</v>
       </c>
       <c r="G43" t="n">
-        <v>122.4992356406305</v>
+        <v>122.4992356406304</v>
       </c>
       <c r="H43" t="n">
-        <v>106.7832461251217</v>
+        <v>106.7832461251216</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>73.29158816675978</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>76.35377281432785</v>
+        <v>76.35377281432777</v>
       </c>
       <c r="S43" t="n">
-        <v>157.8064279657653</v>
+        <v>157.8064279657652</v>
       </c>
       <c r="T43" t="n">
-        <v>90.58800252878035</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>207.9071209114074</v>
+        <v>207.9071209114073</v>
       </c>
       <c r="W43" t="n">
-        <v>242.2924759241704</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>181.4791329766165</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3541309396742</v>
+        <v>174.3541309396741</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.6305105576205</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3992,7 @@
         <v>412.4910609640207</v>
       </c>
       <c r="H44" t="n">
-        <v>276.1799730339129</v>
+        <v>310.6797196366668</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.7877354616281</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.1207187837473</v>
@@ -4074,7 +4074,7 @@
         <v>97.70630459799145</v>
       </c>
       <c r="I45" t="n">
-        <v>37.60110780043217</v>
+        <v>37.60110780043216</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.754337003380172</v>
+        <v>6.754337003380158</v>
       </c>
       <c r="S45" t="n">
         <v>143.7399802005369</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.6172459486168</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>112.0138014273402</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>120.5842952267485</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.036950378186</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.5567347597215</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.250235467105</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1718.957088916127</v>
+        <v>1525.746656041711</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1525.746656041711</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1525.746656041711</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177207</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="W2" t="n">
-        <v>2092.422847177207</v>
+        <v>2289.351746278603</v>
       </c>
       <c r="X2" t="n">
-        <v>1718.957088916127</v>
+        <v>1915.885988017523</v>
       </c>
       <c r="Y2" t="n">
-        <v>1718.957088916127</v>
+        <v>1525.746656041711</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,52 +4404,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430049</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073965</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632154</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698422</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977611</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.62414566204</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.28189617128</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452408</v>
       </c>
       <c r="S4" t="n">
-        <v>632.5337622027571</v>
+        <v>2358.03678310198</v>
       </c>
       <c r="T4" t="n">
-        <v>632.5337622027571</v>
+        <v>2358.03678310198</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>2358.03678310198</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>2358.03678310198</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.5435612426379</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>586.5435612426379</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358873</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358873</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2682.55413416889</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2506.37664648306</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2287.741979455123</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2033.980194093214</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>1702.917306749644</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.148651479529</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>976.6828932184496</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y5" t="n">
-        <v>586.5435612426379</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>55.73076775125796</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>55.73076775125796</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>55.73076775125796</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>55.73076775125796</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>55.73076775125796</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791649</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791649</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>224.6669506791649</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.6669506791649</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>841.2246356268899</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>430.2387308372824</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4841,13 +4841,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757142</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.863596243066</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4908,16 +4908,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207637</v>
@@ -4926,7 +4926,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>104.7388232746241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>104.7388232746241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>104.7388232746241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>104.7388232746241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2131.134905310606</v>
+        <v>2338.854482293826</v>
       </c>
       <c r="C11" t="n">
-        <v>1762.172388370195</v>
+        <v>1969.891965353414</v>
       </c>
       <c r="D11" t="n">
-        <v>1403.906689763444</v>
+        <v>1611.626266746664</v>
       </c>
       <c r="E11" t="n">
-        <v>1018.1184371652</v>
+        <v>1225.838014148419</v>
       </c>
       <c r="F11" t="n">
-        <v>607.1325323755925</v>
+        <v>814.8521093588117</v>
       </c>
       <c r="G11" t="n">
-        <v>190.4748950381979</v>
+        <v>398.194472021417</v>
       </c>
       <c r="H11" t="n">
         <v>84.3765733985212</v>
@@ -5048,7 +5048,7 @@
         <v>1385.234645730894</v>
       </c>
       <c r="M11" t="n">
-        <v>2090.979015197605</v>
+        <v>2090.979015197604</v>
       </c>
       <c r="N11" t="n">
         <v>2793.511068849496</v>
@@ -5075,16 +5075,16 @@
         <v>3965.171378225305</v>
       </c>
       <c r="V11" t="n">
-        <v>3634.108490881734</v>
+        <v>3841.828067864953</v>
       </c>
       <c r="W11" t="n">
-        <v>3281.33983561162</v>
+        <v>3489.059412594839</v>
       </c>
       <c r="X11" t="n">
-        <v>2907.87407735054</v>
+        <v>3115.593654333759</v>
       </c>
       <c r="Y11" t="n">
-        <v>2517.734745374728</v>
+        <v>2725.454322357948</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>439.6972393247078</v>
       </c>
       <c r="M12" t="n">
-        <v>676.3482664264102</v>
+        <v>765.4255734742979</v>
       </c>
       <c r="N12" t="n">
-        <v>1408.220337554252</v>
+        <v>1497.297644602139</v>
       </c>
       <c r="O12" t="n">
-        <v>2011.324621570222</v>
+        <v>2100.40192861811</v>
       </c>
       <c r="P12" t="n">
-        <v>2478.36591242854</v>
+        <v>2567.443219476428</v>
       </c>
       <c r="Q12" t="n">
         <v>2636.837777989757</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>355.6249361426857</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6249361426857</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6249361426857</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6249361426857</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="F13" t="n">
-        <v>355.6249361426857</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="G13" t="n">
-        <v>355.6249361426857</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="H13" t="n">
-        <v>203.085776003754</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="I13" t="n">
         <v>84.3765733985212</v>
@@ -5224,25 +5224,25 @@
         <v>1258.41640519719</v>
       </c>
       <c r="S13" t="n">
-        <v>1054.338677542456</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="T13" t="n">
-        <v>1054.338677542456</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="U13" t="n">
-        <v>1054.338677542456</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="V13" t="n">
-        <v>1054.338677542456</v>
+        <v>1004.224338307269</v>
       </c>
       <c r="W13" t="n">
-        <v>986.0555310144729</v>
+        <v>714.8071682703084</v>
       </c>
       <c r="X13" t="n">
-        <v>758.0659801164555</v>
+        <v>486.817617372291</v>
       </c>
       <c r="Y13" t="n">
-        <v>537.2734009729254</v>
+        <v>266.0250382287609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2128.146411280595</v>
+        <v>2338.854482293826</v>
       </c>
       <c r="C14" t="n">
-        <v>1759.183894340183</v>
+        <v>1969.891965353414</v>
       </c>
       <c r="D14" t="n">
-        <v>1400.918195733433</v>
+        <v>1611.626266746664</v>
       </c>
       <c r="E14" t="n">
-        <v>1015.129943135188</v>
+        <v>1225.838014148419</v>
       </c>
       <c r="F14" t="n">
-        <v>604.1440383455807</v>
+        <v>814.8521093588117</v>
       </c>
       <c r="G14" t="n">
-        <v>187.4864010081861</v>
+        <v>398.194472021417</v>
       </c>
       <c r="H14" t="n">
-        <v>187.4864010081861</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="I14" t="n">
         <v>84.3765733985212</v>
@@ -5303,25 +5303,25 @@
         <v>4218.82866992606</v>
       </c>
       <c r="S14" t="n">
-        <v>4072.415548534417</v>
+        <v>4218.82866992606</v>
       </c>
       <c r="T14" t="n">
-        <v>3884.777288552477</v>
+        <v>4218.82866992606</v>
       </c>
       <c r="U14" t="n">
-        <v>3631.119996851723</v>
+        <v>3965.171378225305</v>
       </c>
       <c r="V14" t="n">
-        <v>3631.119996851723</v>
+        <v>3841.828067864953</v>
       </c>
       <c r="W14" t="n">
-        <v>3278.351341581608</v>
+        <v>3489.059412594839</v>
       </c>
       <c r="X14" t="n">
-        <v>2904.885583320528</v>
+        <v>3115.593654333759</v>
       </c>
       <c r="Y14" t="n">
-        <v>2514.746251344717</v>
+        <v>2725.454322357948</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>224.3470188227222</v>
       </c>
       <c r="K15" t="n">
-        <v>349.7045788805596</v>
+        <v>590.1996473320268</v>
       </c>
       <c r="L15" t="n">
-        <v>598.1691048859248</v>
+        <v>1143.5380516682</v>
       </c>
       <c r="M15" t="n">
-        <v>834.8201319876272</v>
+        <v>1601.413265584431</v>
       </c>
       <c r="N15" t="n">
-        <v>1566.692203115469</v>
+        <v>1945.933921222049</v>
       </c>
       <c r="O15" t="n">
-        <v>2169.796487131439</v>
+        <v>2194.687335306011</v>
       </c>
       <c r="P15" t="n">
-        <v>2636.837777989757</v>
+        <v>2377.330812919362</v>
       </c>
       <c r="Q15" t="n">
         <v>2636.837777989757</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.717385225235</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="C16" t="n">
-        <v>268.717385225235</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="D16" t="n">
-        <v>268.717385225235</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="E16" t="n">
-        <v>268.717385225235</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="F16" t="n">
-        <v>268.717385225235</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="G16" t="n">
-        <v>268.717385225235</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="H16" t="n">
-        <v>116.1782250863034</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="I16" t="n">
         <v>84.3765733985212</v>
@@ -5461,25 +5461,25 @@
         <v>1258.41640519719</v>
       </c>
       <c r="S16" t="n">
-        <v>1258.41640519719</v>
+        <v>1054.338677542456</v>
       </c>
       <c r="T16" t="n">
-        <v>1033.611622611613</v>
+        <v>829.5338949568792</v>
       </c>
       <c r="U16" t="n">
-        <v>1033.611622611613</v>
+        <v>540.3922429699044</v>
       </c>
       <c r="V16" t="n">
-        <v>778.9271344057257</v>
+        <v>540.3922429699044</v>
       </c>
       <c r="W16" t="n">
-        <v>489.5099643687651</v>
+        <v>250.9750729329438</v>
       </c>
       <c r="X16" t="n">
-        <v>489.5099643687651</v>
+        <v>250.9750729329438</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.717385225235</v>
+        <v>84.3765733985212</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2128.146411280595</v>
+        <v>1918.218000803912</v>
       </c>
       <c r="C17" t="n">
-        <v>1759.183894340183</v>
+        <v>1549.2554838635</v>
       </c>
       <c r="D17" t="n">
-        <v>1400.918195733433</v>
+        <v>1190.989785256749</v>
       </c>
       <c r="E17" t="n">
-        <v>1015.129943135188</v>
+        <v>1190.989785256749</v>
       </c>
       <c r="F17" t="n">
-        <v>604.1440383455807</v>
+        <v>917.9619369684765</v>
       </c>
       <c r="G17" t="n">
-        <v>187.486401008186</v>
+        <v>501.3042996310819</v>
       </c>
       <c r="H17" t="n">
-        <v>187.486401008186</v>
+        <v>187.4864010081861</v>
       </c>
       <c r="I17" t="n">
         <v>84.3765733985212</v>
       </c>
       <c r="J17" t="n">
-        <v>308.7979342907988</v>
+        <v>308.7979342907984</v>
       </c>
       <c r="K17" t="n">
-        <v>765.8921832796507</v>
+        <v>765.89218327965</v>
       </c>
       <c r="L17" t="n">
         <v>1385.234645730894</v>
       </c>
       <c r="M17" t="n">
-        <v>2090.979015197605</v>
+        <v>2090.979015197604</v>
       </c>
       <c r="N17" t="n">
         <v>2793.511068849496</v>
       </c>
       <c r="O17" t="n">
-        <v>3411.704527818704</v>
+        <v>3411.704527818703</v>
       </c>
       <c r="P17" t="n">
         <v>3901.643959730234</v>
@@ -5540,25 +5540,25 @@
         <v>4218.82866992606</v>
       </c>
       <c r="S17" t="n">
-        <v>4072.415548534417</v>
+        <v>4218.82866992606</v>
       </c>
       <c r="T17" t="n">
-        <v>3859.498644027722</v>
+        <v>4005.911765419365</v>
       </c>
       <c r="U17" t="n">
-        <v>3605.841352326967</v>
+        <v>3752.25447371861</v>
       </c>
       <c r="V17" t="n">
-        <v>3278.351341581608</v>
+        <v>3421.191586375039</v>
       </c>
       <c r="W17" t="n">
-        <v>3278.351341581608</v>
+        <v>3068.422931104925</v>
       </c>
       <c r="X17" t="n">
-        <v>2904.885583320528</v>
+        <v>2694.957172843845</v>
       </c>
       <c r="Y17" t="n">
-        <v>2514.746251344717</v>
+        <v>2304.817840868033</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>84.3765733985212</v>
       </c>
       <c r="J18" t="n">
-        <v>84.3765733985212</v>
+        <v>224.3470188227222</v>
       </c>
       <c r="K18" t="n">
-        <v>84.3765733985212</v>
+        <v>590.1996473320268</v>
       </c>
       <c r="L18" t="n">
-        <v>637.7149777346947</v>
+        <v>820.1627532003758</v>
       </c>
       <c r="M18" t="n">
-        <v>1335.414017948897</v>
+        <v>1517.861793414578</v>
       </c>
       <c r="N18" t="n">
-        <v>1679.934673586515</v>
+        <v>2205.440886292444</v>
       </c>
       <c r="O18" t="n">
-        <v>2169.796487131439</v>
+        <v>2454.194300376406</v>
       </c>
       <c r="P18" t="n">
         <v>2636.837777989757</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.3765733985212</v>
+        <v>204.3805158238374</v>
       </c>
       <c r="C19" t="n">
-        <v>84.3765733985212</v>
+        <v>204.3805158238374</v>
       </c>
       <c r="D19" t="n">
-        <v>84.3765733985212</v>
+        <v>204.3805158238374</v>
       </c>
       <c r="E19" t="n">
-        <v>84.3765733985212</v>
+        <v>204.3805158238374</v>
       </c>
       <c r="F19" t="n">
-        <v>84.3765733985212</v>
+        <v>204.3805158238374</v>
       </c>
       <c r="G19" t="n">
-        <v>84.3765733985212</v>
+        <v>204.3805158238374</v>
       </c>
       <c r="H19" t="n">
         <v>84.3765733985212</v>
@@ -5680,13 +5680,13 @@
         <v>420.3436951043325</v>
       </c>
       <c r="M19" t="n">
-        <v>655.2568840188542</v>
+        <v>655.2568840188541</v>
       </c>
       <c r="N19" t="n">
-        <v>890.0189787796357</v>
+        <v>890.0189787796356</v>
       </c>
       <c r="O19" t="n">
-        <v>1090.843475122841</v>
+        <v>1090.84347512284</v>
       </c>
       <c r="P19" t="n">
         <v>1239.162843019377</v>
@@ -5695,28 +5695,28 @@
         <v>1258.41640519719</v>
       </c>
       <c r="R19" t="n">
-        <v>1136.614086786333</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="S19" t="n">
-        <v>932.5363591315997</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="T19" t="n">
-        <v>707.7315765460224</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="U19" t="n">
-        <v>418.5899245590476</v>
+        <v>969.274753210215</v>
       </c>
       <c r="V19" t="n">
-        <v>163.9054363531608</v>
+        <v>714.5902650043281</v>
       </c>
       <c r="W19" t="n">
-        <v>84.3765733985212</v>
+        <v>425.1730949673675</v>
       </c>
       <c r="X19" t="n">
-        <v>84.3765733985212</v>
+        <v>425.1730949673675</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.3765733985212</v>
+        <v>204.3805158238374</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1771.804879412269</v>
+        <v>2025.03658367093</v>
       </c>
       <c r="C20" t="n">
-        <v>1714.736094356328</v>
+        <v>1656.074066730518</v>
       </c>
       <c r="D20" t="n">
-        <v>1714.736094356328</v>
+        <v>1297.808368123768</v>
       </c>
       <c r="E20" t="n">
-        <v>1328.947841758084</v>
+        <v>912.0201155255234</v>
       </c>
       <c r="F20" t="n">
-        <v>917.9619369684765</v>
+        <v>501.0342107359158</v>
       </c>
       <c r="G20" t="n">
-        <v>501.3042996310819</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="H20" t="n">
-        <v>187.4864010081861</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="I20" t="n">
         <v>84.3765733985212</v>
@@ -5753,19 +5753,19 @@
         <v>308.7979342907984</v>
       </c>
       <c r="K20" t="n">
-        <v>765.89218327965</v>
+        <v>765.8921832796503</v>
       </c>
       <c r="L20" t="n">
         <v>1385.234645730894</v>
       </c>
       <c r="M20" t="n">
-        <v>2090.979015197604</v>
+        <v>2090.979015197605</v>
       </c>
       <c r="N20" t="n">
         <v>2793.511068849496</v>
       </c>
       <c r="O20" t="n">
-        <v>3411.704527818703</v>
+        <v>3411.704527818704</v>
       </c>
       <c r="P20" t="n">
         <v>3901.643959730234</v>
@@ -5777,25 +5777,25 @@
         <v>4218.82866992606</v>
       </c>
       <c r="S20" t="n">
-        <v>4072.415548534417</v>
+        <v>4112.730348286384</v>
       </c>
       <c r="T20" t="n">
-        <v>3859.498644027722</v>
+        <v>4112.730348286384</v>
       </c>
       <c r="U20" t="n">
-        <v>3605.841352326967</v>
+        <v>3859.073056585628</v>
       </c>
       <c r="V20" t="n">
-        <v>3274.778464983397</v>
+        <v>3528.010169242058</v>
       </c>
       <c r="W20" t="n">
-        <v>2922.009809713282</v>
+        <v>3175.241513971943</v>
       </c>
       <c r="X20" t="n">
-        <v>2548.544051452202</v>
+        <v>2801.775755710863</v>
       </c>
       <c r="Y20" t="n">
-        <v>2158.404719476391</v>
+        <v>2411.636423735052</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>349.7045788805596</v>
       </c>
       <c r="L21" t="n">
-        <v>832.4416694348197</v>
+        <v>579.6676847489088</v>
       </c>
       <c r="M21" t="n">
-        <v>1152.776988964521</v>
+        <v>1214.061850094207</v>
       </c>
       <c r="N21" t="n">
-        <v>1497.297644602139</v>
+        <v>1945.933921222049</v>
       </c>
       <c r="O21" t="n">
-        <v>2100.40192861811</v>
+        <v>2194.687335306011</v>
       </c>
       <c r="P21" t="n">
-        <v>2567.443219476428</v>
+        <v>2377.330812919362</v>
       </c>
       <c r="Q21" t="n">
         <v>2636.837777989757</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>252.7904704218051</v>
+        <v>3653.387280822747</v>
       </c>
       <c r="C22" t="n">
-        <v>252.7904704218051</v>
+        <v>3484.45109789484</v>
       </c>
       <c r="D22" t="n">
-        <v>252.7904704218051</v>
+        <v>3484.45109789484</v>
       </c>
       <c r="E22" t="n">
-        <v>252.7904704218051</v>
+        <v>3484.45109789484</v>
       </c>
       <c r="F22" t="n">
-        <v>252.7904704218051</v>
+        <v>3484.45109789484</v>
       </c>
       <c r="G22" t="n">
-        <v>84.3765733985212</v>
+        <v>3316.037200871556</v>
       </c>
       <c r="H22" t="n">
-        <v>84.3765733985212</v>
+        <v>3163.498040732624</v>
       </c>
       <c r="I22" t="n">
-        <v>84.3765733985212</v>
+        <v>3044.788838127392</v>
       </c>
       <c r="J22" t="n">
-        <v>84.3765733985212</v>
+        <v>3044.788838127392</v>
       </c>
       <c r="K22" t="n">
-        <v>207.3954510388868</v>
+        <v>3167.807715767757</v>
       </c>
       <c r="L22" t="n">
-        <v>420.3436951043325</v>
+        <v>3380.755959833203</v>
       </c>
       <c r="M22" t="n">
-        <v>655.2568840188541</v>
+        <v>3615.669148747724</v>
       </c>
       <c r="N22" t="n">
-        <v>890.0189787796356</v>
+        <v>3850.431243508506</v>
       </c>
       <c r="O22" t="n">
-        <v>1090.84347512284</v>
+        <v>4051.255739851711</v>
       </c>
       <c r="P22" t="n">
-        <v>1239.162843019377</v>
+        <v>4199.575107748247</v>
       </c>
       <c r="Q22" t="n">
-        <v>1258.41640519719</v>
+        <v>4218.82866992606</v>
       </c>
       <c r="R22" t="n">
-        <v>1258.41640519719</v>
+        <v>4097.026351515203</v>
       </c>
       <c r="S22" t="n">
-        <v>1054.338677542456</v>
+        <v>4055.828324796516</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5338949568792</v>
+        <v>4055.828324796516</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5338949568792</v>
+        <v>4055.828324796516</v>
       </c>
       <c r="V22" t="n">
-        <v>574.8494067509923</v>
+        <v>4055.828324796516</v>
       </c>
       <c r="W22" t="n">
-        <v>285.4322367140317</v>
+        <v>4055.828324796516</v>
       </c>
       <c r="X22" t="n">
-        <v>285.4322367140317</v>
+        <v>4055.828324796516</v>
       </c>
       <c r="Y22" t="n">
-        <v>252.7904704218051</v>
+        <v>3835.035745652986</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2338.854482293826</v>
+        <v>2441.964309903491</v>
       </c>
       <c r="C23" t="n">
-        <v>1969.891965353414</v>
+        <v>2073.001792963079</v>
       </c>
       <c r="D23" t="n">
-        <v>1611.626266746664</v>
+        <v>1714.736094356328</v>
       </c>
       <c r="E23" t="n">
-        <v>1225.838014148419</v>
+        <v>1328.947841758084</v>
       </c>
       <c r="F23" t="n">
-        <v>814.8521093588117</v>
+        <v>917.9619369684765</v>
       </c>
       <c r="G23" t="n">
-        <v>398.194472021417</v>
+        <v>501.3042996310819</v>
       </c>
       <c r="H23" t="n">
-        <v>84.3765733985212</v>
+        <v>187.4864010081861</v>
       </c>
       <c r="I23" t="n">
         <v>84.3765733985212</v>
       </c>
       <c r="J23" t="n">
-        <v>308.7979342907987</v>
+        <v>308.7979342907984</v>
       </c>
       <c r="K23" t="n">
-        <v>765.8921832796505</v>
+        <v>765.8921832796503</v>
       </c>
       <c r="L23" t="n">
         <v>1385.234645730894</v>
       </c>
       <c r="M23" t="n">
-        <v>2090.979015197604</v>
+        <v>2090.979015197605</v>
       </c>
       <c r="N23" t="n">
         <v>2793.511068849496</v>
       </c>
       <c r="O23" t="n">
-        <v>3411.704527818703</v>
+        <v>3411.704527818704</v>
       </c>
       <c r="P23" t="n">
         <v>3901.643959730234</v>
@@ -6014,25 +6014,25 @@
         <v>4218.82866992606</v>
       </c>
       <c r="S23" t="n">
-        <v>4218.82866992606</v>
+        <v>4198.595187175373</v>
       </c>
       <c r="T23" t="n">
-        <v>4218.82866992606</v>
+        <v>4198.595187175373</v>
       </c>
       <c r="U23" t="n">
-        <v>4172.890955208524</v>
+        <v>3944.937895474618</v>
       </c>
       <c r="V23" t="n">
-        <v>3841.828067864953</v>
+        <v>3944.937895474618</v>
       </c>
       <c r="W23" t="n">
-        <v>3489.059412594839</v>
+        <v>3592.169240204504</v>
       </c>
       <c r="X23" t="n">
-        <v>3115.593654333759</v>
+        <v>3218.703481943424</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.454322357948</v>
+        <v>2828.564149967613</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2569.412321276515</v>
+        <v>987.421429340213</v>
       </c>
       <c r="C24" t="n">
-        <v>2394.959291995388</v>
+        <v>812.968400059086</v>
       </c>
       <c r="D24" t="n">
-        <v>2246.024882334137</v>
+        <v>664.0339903978347</v>
       </c>
       <c r="E24" t="n">
-        <v>2086.787427328682</v>
+        <v>504.7965353923793</v>
       </c>
       <c r="F24" t="n">
-        <v>1940.252869355567</v>
+        <v>358.2619774192643</v>
       </c>
       <c r="G24" t="n">
-        <v>1803.041619272625</v>
+        <v>221.0507273363228</v>
       </c>
       <c r="H24" t="n">
-        <v>1704.348382304957</v>
+        <v>122.3574903686547</v>
       </c>
       <c r="I24" t="n">
-        <v>1666.367465334824</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J24" t="n">
-        <v>1666.367465334824</v>
+        <v>224.3470188227222</v>
       </c>
       <c r="K24" t="n">
-        <v>1956.190168699696</v>
+        <v>590.1996473320268</v>
       </c>
       <c r="L24" t="n">
-        <v>2186.153274568046</v>
+        <v>1143.5380516682</v>
       </c>
       <c r="M24" t="n">
-        <v>2883.852314782248</v>
+        <v>1463.873371197902</v>
       </c>
       <c r="N24" t="n">
-        <v>3615.724385910089</v>
+        <v>1808.39402683552</v>
       </c>
       <c r="O24" t="n">
-        <v>4218.82866992606</v>
+        <v>2384.799741863077</v>
       </c>
       <c r="P24" t="n">
-        <v>4218.82866992606</v>
+        <v>2567.443219476428</v>
       </c>
       <c r="Q24" t="n">
-        <v>4218.82866992606</v>
+        <v>2636.837777989757</v>
       </c>
       <c r="R24" t="n">
-        <v>4212.006107296383</v>
+        <v>2630.01521536008</v>
       </c>
       <c r="S24" t="n">
-        <v>4066.814208103921</v>
+        <v>2484.823316167619</v>
       </c>
       <c r="T24" t="n">
-        <v>3870.752568429149</v>
+        <v>2288.761676492846</v>
       </c>
       <c r="U24" t="n">
-        <v>3642.628922227014</v>
+        <v>2060.638030290712</v>
       </c>
       <c r="V24" t="n">
-        <v>3407.476813995272</v>
+        <v>1825.485922058969</v>
       </c>
       <c r="W24" t="n">
-        <v>3153.23945726707</v>
+        <v>1571.248565330768</v>
       </c>
       <c r="X24" t="n">
-        <v>2945.387957061537</v>
+        <v>1363.397065125235</v>
       </c>
       <c r="Y24" t="n">
-        <v>2737.627658296583</v>
+        <v>1155.636766360281</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3192.701931709785</v>
+        <v>553.2427241431299</v>
       </c>
       <c r="C25" t="n">
-        <v>3192.701931709785</v>
+        <v>553.2427241431299</v>
       </c>
       <c r="D25" t="n">
-        <v>3192.701931709785</v>
+        <v>553.2427241431299</v>
       </c>
       <c r="E25" t="n">
-        <v>3044.788838127392</v>
+        <v>405.3296305607367</v>
       </c>
       <c r="F25" t="n">
-        <v>3044.788838127392</v>
+        <v>405.3296305607367</v>
       </c>
       <c r="G25" t="n">
-        <v>3044.788838127392</v>
+        <v>236.9157335374528</v>
       </c>
       <c r="H25" t="n">
-        <v>3044.788838127392</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="I25" t="n">
-        <v>3044.788838127392</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J25" t="n">
-        <v>3044.788838127392</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="K25" t="n">
-        <v>3167.807715767757</v>
+        <v>207.3954510388868</v>
       </c>
       <c r="L25" t="n">
-        <v>3380.755959833203</v>
+        <v>420.3436951043325</v>
       </c>
       <c r="M25" t="n">
-        <v>3615.669148747724</v>
+        <v>655.2568840188541</v>
       </c>
       <c r="N25" t="n">
-        <v>3850.431243508506</v>
+        <v>890.0189787796356</v>
       </c>
       <c r="O25" t="n">
-        <v>4051.255739851711</v>
+        <v>1090.84347512284</v>
       </c>
       <c r="P25" t="n">
-        <v>4199.575107748247</v>
+        <v>1239.162843019377</v>
       </c>
       <c r="Q25" t="n">
-        <v>4218.82866992606</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="R25" t="n">
-        <v>4218.82866992606</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="S25" t="n">
-        <v>4014.750942271326</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="T25" t="n">
-        <v>3789.946159685749</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="U25" t="n">
-        <v>3500.804507698774</v>
+        <v>1097.344382385977</v>
       </c>
       <c r="V25" t="n">
-        <v>3500.804507698774</v>
+        <v>842.6598941800905</v>
       </c>
       <c r="W25" t="n">
-        <v>3211.387337661813</v>
+        <v>553.2427241431299</v>
       </c>
       <c r="X25" t="n">
-        <v>3211.387337661813</v>
+        <v>553.2427241431299</v>
       </c>
       <c r="Y25" t="n">
-        <v>3192.701931709785</v>
+        <v>553.2427241431299</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2025.306672566096</v>
+        <v>1771.804879412269</v>
       </c>
       <c r="C26" t="n">
-        <v>1656.344155625684</v>
+        <v>1714.736094356328</v>
       </c>
       <c r="D26" t="n">
-        <v>1298.078457018934</v>
+        <v>1714.736094356328</v>
       </c>
       <c r="E26" t="n">
-        <v>912.2902044206894</v>
+        <v>1328.947841758084</v>
       </c>
       <c r="F26" t="n">
-        <v>501.3042996310819</v>
+        <v>917.9619369684765</v>
       </c>
       <c r="G26" t="n">
         <v>501.3042996310819</v>
@@ -6224,10 +6224,10 @@
         <v>84.3765733985212</v>
       </c>
       <c r="J26" t="n">
-        <v>308.7979342907987</v>
+        <v>308.7979342907984</v>
       </c>
       <c r="K26" t="n">
-        <v>765.8921832796505</v>
+        <v>765.89218327965</v>
       </c>
       <c r="L26" t="n">
         <v>1385.234645730894</v>
@@ -6239,7 +6239,7 @@
         <v>2793.511068849496</v>
       </c>
       <c r="O26" t="n">
-        <v>3411.704527818704</v>
+        <v>3411.704527818703</v>
       </c>
       <c r="P26" t="n">
         <v>3901.643959730234</v>
@@ -6263,13 +6263,13 @@
         <v>3274.778464983397</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.511602867109</v>
+        <v>2922.009809713282</v>
       </c>
       <c r="X26" t="n">
-        <v>2802.045844606029</v>
+        <v>2548.544051452202</v>
       </c>
       <c r="Y26" t="n">
-        <v>2411.906512630218</v>
+        <v>2158.404719476391</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>84.3765733985212</v>
       </c>
       <c r="J27" t="n">
-        <v>224.3470188227222</v>
+        <v>99.51689383571747</v>
       </c>
       <c r="K27" t="n">
-        <v>590.1996473320268</v>
+        <v>203.5489377025692</v>
       </c>
       <c r="L27" t="n">
-        <v>1143.5380516682</v>
+        <v>756.8873420387425</v>
       </c>
       <c r="M27" t="n">
-        <v>1624.647223541283</v>
+        <v>1098.56782272926</v>
       </c>
       <c r="N27" t="n">
-        <v>1881.970344069006</v>
+        <v>1830.439893857102</v>
       </c>
       <c r="O27" t="n">
-        <v>2485.074628084977</v>
+        <v>2433.544177873072</v>
       </c>
       <c r="P27" t="n">
-        <v>2636.837777989757</v>
+        <v>2585.307327777853</v>
       </c>
       <c r="Q27" t="n">
         <v>2636.837777989757</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3954.627033212135</v>
+        <v>707.7315765460222</v>
       </c>
       <c r="C28" t="n">
-        <v>3785.690850284228</v>
+        <v>538.7953936181153</v>
       </c>
       <c r="D28" t="n">
-        <v>3635.574210871892</v>
+        <v>524.0388331659697</v>
       </c>
       <c r="E28" t="n">
-        <v>3635.574210871892</v>
+        <v>524.0388331659697</v>
       </c>
       <c r="F28" t="n">
-        <v>3488.684263373982</v>
+        <v>524.0388331659697</v>
       </c>
       <c r="G28" t="n">
-        <v>3320.270366350698</v>
+        <v>355.6249361426857</v>
       </c>
       <c r="H28" t="n">
-        <v>3167.731206211767</v>
+        <v>203.085776003754</v>
       </c>
       <c r="I28" t="n">
-        <v>3049.022003606534</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J28" t="n">
-        <v>3044.788838127392</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="K28" t="n">
-        <v>3167.807715767757</v>
+        <v>207.3954510388868</v>
       </c>
       <c r="L28" t="n">
-        <v>3380.755959833203</v>
+        <v>420.3436951043325</v>
       </c>
       <c r="M28" t="n">
-        <v>3615.669148747724</v>
+        <v>655.2568840188541</v>
       </c>
       <c r="N28" t="n">
-        <v>3850.431243508506</v>
+        <v>890.0189787796356</v>
       </c>
       <c r="O28" t="n">
-        <v>4051.255739851711</v>
+        <v>1090.84347512284</v>
       </c>
       <c r="P28" t="n">
-        <v>4199.575107748247</v>
+        <v>1239.162843019377</v>
       </c>
       <c r="Q28" t="n">
-        <v>4218.82866992606</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="R28" t="n">
-        <v>4218.82866992606</v>
+        <v>1136.614086786333</v>
       </c>
       <c r="S28" t="n">
-        <v>4218.82866992606</v>
+        <v>932.5363591315995</v>
       </c>
       <c r="T28" t="n">
-        <v>4218.82866992606</v>
+        <v>707.7315765460222</v>
       </c>
       <c r="U28" t="n">
-        <v>4218.82866992606</v>
+        <v>707.7315765460222</v>
       </c>
       <c r="V28" t="n">
-        <v>4218.82866992606</v>
+        <v>707.7315765460222</v>
       </c>
       <c r="W28" t="n">
-        <v>4136.275498042374</v>
+        <v>707.7315765460222</v>
       </c>
       <c r="X28" t="n">
-        <v>4136.275498042374</v>
+        <v>707.7315765460222</v>
       </c>
       <c r="Y28" t="n">
-        <v>4136.275498042374</v>
+        <v>707.7315765460222</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2129.22324234092</v>
+        <v>2129.223242340921</v>
       </c>
       <c r="C29" t="n">
-        <v>1804.93802076659</v>
+        <v>1804.938020766591</v>
       </c>
       <c r="D29" t="n">
-        <v>1491.349617525921</v>
+        <v>1491.349617525922</v>
       </c>
       <c r="E29" t="n">
-        <v>1150.238660293758</v>
+        <v>1150.238660293759</v>
       </c>
       <c r="F29" t="n">
-        <v>783.930050870232</v>
+        <v>783.9300508702332</v>
       </c>
       <c r="G29" t="n">
-        <v>411.949708898919</v>
+        <v>411.9497088989201</v>
       </c>
       <c r="H29" t="n">
-        <v>142.8091056421046</v>
+        <v>142.8091056421057</v>
       </c>
       <c r="I29" t="n">
         <v>84.3765733985212</v>
@@ -6464,19 +6464,19 @@
         <v>308.7979342907984</v>
       </c>
       <c r="K29" t="n">
-        <v>765.8921832796503</v>
+        <v>765.89218327965</v>
       </c>
       <c r="L29" t="n">
         <v>1385.234645730894</v>
       </c>
       <c r="M29" t="n">
-        <v>2090.979015197605</v>
+        <v>2090.979015197604</v>
       </c>
       <c r="N29" t="n">
         <v>2793.511068849496</v>
       </c>
       <c r="O29" t="n">
-        <v>3411.704527818704</v>
+        <v>3411.704527818703</v>
       </c>
       <c r="P29" t="n">
         <v>3901.643959730234</v>
@@ -6494,19 +6494,19 @@
         <v>3948.853234759885</v>
       </c>
       <c r="U29" t="n">
-        <v>3739.873238425211</v>
+        <v>3739.873238425212</v>
       </c>
       <c r="V29" t="n">
         <v>3453.487646447722</v>
       </c>
       <c r="W29" t="n">
-        <v>3145.396286543689</v>
+        <v>3145.39628654369</v>
       </c>
       <c r="X29" t="n">
         <v>2816.607823648691</v>
       </c>
       <c r="Y29" t="n">
-        <v>2471.14578703896</v>
+        <v>2471.145787038961</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2569.412321276515</v>
+        <v>987.421429340213</v>
       </c>
       <c r="C30" t="n">
-        <v>2394.959291995388</v>
+        <v>812.968400059086</v>
       </c>
       <c r="D30" t="n">
-        <v>2246.024882334137</v>
+        <v>664.0339903978347</v>
       </c>
       <c r="E30" t="n">
-        <v>2086.787427328682</v>
+        <v>504.7965353923793</v>
       </c>
       <c r="F30" t="n">
-        <v>1940.252869355567</v>
+        <v>358.2619774192643</v>
       </c>
       <c r="G30" t="n">
-        <v>1803.041619272625</v>
+        <v>221.0507273363228</v>
       </c>
       <c r="H30" t="n">
-        <v>1704.348382304957</v>
+        <v>122.3574903686547</v>
       </c>
       <c r="I30" t="n">
-        <v>1666.367465334824</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J30" t="n">
-        <v>1666.367465334824</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="K30" t="n">
-        <v>1791.725025392661</v>
+        <v>450.2292019078258</v>
       </c>
       <c r="L30" t="n">
-        <v>2057.505229581784</v>
+        <v>680.1923077761749</v>
       </c>
       <c r="M30" t="n">
-        <v>2755.204269795986</v>
+        <v>1377.891347990377</v>
       </c>
       <c r="N30" t="n">
-        <v>3487.076340923828</v>
+        <v>1851.648514534147</v>
       </c>
       <c r="O30" t="n">
-        <v>3700.256928855836</v>
+        <v>2100.40192861811</v>
       </c>
       <c r="P30" t="n">
-        <v>4167.298219714155</v>
+        <v>2567.443219476428</v>
       </c>
       <c r="Q30" t="n">
-        <v>4218.82866992606</v>
+        <v>2636.837777989757</v>
       </c>
       <c r="R30" t="n">
-        <v>4212.006107296383</v>
+        <v>2630.01521536008</v>
       </c>
       <c r="S30" t="n">
-        <v>4066.814208103921</v>
+        <v>2484.823316167619</v>
       </c>
       <c r="T30" t="n">
-        <v>3870.752568429149</v>
+        <v>2288.761676492846</v>
       </c>
       <c r="U30" t="n">
-        <v>3642.628922227014</v>
+        <v>2060.638030290712</v>
       </c>
       <c r="V30" t="n">
-        <v>3407.476813995272</v>
+        <v>1825.485922058969</v>
       </c>
       <c r="W30" t="n">
-        <v>3153.23945726707</v>
+        <v>1571.248565330768</v>
       </c>
       <c r="X30" t="n">
-        <v>2945.387957061537</v>
+        <v>1363.397065125235</v>
       </c>
       <c r="Y30" t="n">
-        <v>2737.627658296583</v>
+        <v>1155.636766360281</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>310.3258271875526</v>
+        <v>189.8159174447754</v>
       </c>
       <c r="C31" t="n">
-        <v>310.3258271875526</v>
+        <v>189.8159174447754</v>
       </c>
       <c r="D31" t="n">
-        <v>310.3258271875526</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="E31" t="n">
-        <v>310.3258271875526</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="F31" t="n">
-        <v>208.1131750557237</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="G31" t="n">
         <v>84.3765733985212</v>
@@ -6619,19 +6619,19 @@
         <v>84.3765733985212</v>
       </c>
       <c r="J31" t="n">
-        <v>124.0158651007103</v>
+        <v>124.0158651007104</v>
       </c>
       <c r="K31" t="n">
-        <v>290.8229599293724</v>
+        <v>290.8229599293725</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5594211831144</v>
+        <v>547.5594211831146</v>
       </c>
       <c r="M31" t="n">
-        <v>826.2608272859325</v>
+        <v>826.2608272859327</v>
       </c>
       <c r="N31" t="n">
-        <v>1104.81113923501</v>
+        <v>1104.811139235011</v>
       </c>
       <c r="O31" t="n">
         <v>1349.423852766512</v>
@@ -6643,28 +6643,28 @@
         <v>1604.573217217454</v>
       </c>
       <c r="R31" t="n">
-        <v>1527.448194172678</v>
+        <v>1587.982800393885</v>
       </c>
       <c r="S31" t="n">
-        <v>1368.047761884026</v>
+        <v>1428.582368105233</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.920274664531</v>
+        <v>1248.454880885738</v>
       </c>
       <c r="U31" t="n">
-        <v>943.4559180436372</v>
+        <v>1003.990524264844</v>
       </c>
       <c r="V31" t="n">
-        <v>914.4932411678163</v>
+        <v>793.9833314250388</v>
       </c>
       <c r="W31" t="n">
-        <v>669.7533664969371</v>
+        <v>549.2434567541598</v>
       </c>
       <c r="X31" t="n">
-        <v>486.4411109650013</v>
+        <v>365.931201222224</v>
       </c>
       <c r="Y31" t="n">
-        <v>310.3258271875526</v>
+        <v>189.8159174447754</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2129.22324234092</v>
+        <v>2129.223242340921</v>
       </c>
       <c r="C32" t="n">
-        <v>1804.93802076659</v>
+        <v>1804.938020766591</v>
       </c>
       <c r="D32" t="n">
-        <v>1491.349617525921</v>
+        <v>1491.349617525922</v>
       </c>
       <c r="E32" t="n">
-        <v>1150.238660293758</v>
+        <v>1150.238660293759</v>
       </c>
       <c r="F32" t="n">
-        <v>783.9300508702323</v>
+        <v>783.9300508702331</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9497088989191</v>
+        <v>411.9497088989199</v>
       </c>
       <c r="H32" t="n">
         <v>142.8091056421046</v>
@@ -6731,16 +6731,16 @@
         <v>3948.853234759885</v>
       </c>
       <c r="U32" t="n">
-        <v>3739.873238425211</v>
+        <v>3739.873238425212</v>
       </c>
       <c r="V32" t="n">
-        <v>3453.487646447722</v>
+        <v>3453.487646447723</v>
       </c>
       <c r="W32" t="n">
-        <v>3145.396286543689</v>
+        <v>3145.39628654369</v>
       </c>
       <c r="X32" t="n">
-        <v>2816.607823648691</v>
+        <v>2816.607823648692</v>
       </c>
       <c r="Y32" t="n">
         <v>2471.145787038961</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2569.412321276515</v>
+        <v>987.421429340213</v>
       </c>
       <c r="C33" t="n">
-        <v>2394.959291995388</v>
+        <v>812.968400059086</v>
       </c>
       <c r="D33" t="n">
-        <v>2246.024882334137</v>
+        <v>664.0339903978347</v>
       </c>
       <c r="E33" t="n">
-        <v>2086.787427328682</v>
+        <v>504.7965353923793</v>
       </c>
       <c r="F33" t="n">
-        <v>1940.252869355567</v>
+        <v>358.2619774192643</v>
       </c>
       <c r="G33" t="n">
-        <v>1803.041619272625</v>
+        <v>221.0507273363228</v>
       </c>
       <c r="H33" t="n">
-        <v>1704.348382304957</v>
+        <v>122.3574903686547</v>
       </c>
       <c r="I33" t="n">
-        <v>1666.367465334824</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J33" t="n">
-        <v>1806.337910759025</v>
+        <v>224.3470188227222</v>
       </c>
       <c r="K33" t="n">
-        <v>1931.695470816862</v>
+        <v>349.7045788805596</v>
       </c>
       <c r="L33" t="n">
-        <v>2117.901933302611</v>
+        <v>579.6676847489088</v>
       </c>
       <c r="M33" t="n">
-        <v>2815.600973516813</v>
+        <v>1277.366724963111</v>
       </c>
       <c r="N33" t="n">
-        <v>3546.32982739676</v>
+        <v>2009.238796090953</v>
       </c>
       <c r="O33" t="n">
-        <v>4149.43411141273</v>
+        <v>2384.799741863077</v>
       </c>
       <c r="P33" t="n">
-        <v>4149.43411141273</v>
+        <v>2567.443219476428</v>
       </c>
       <c r="Q33" t="n">
-        <v>4218.82866992606</v>
+        <v>2636.837777989757</v>
       </c>
       <c r="R33" t="n">
-        <v>4212.006107296383</v>
+        <v>2630.01521536008</v>
       </c>
       <c r="S33" t="n">
-        <v>4066.814208103921</v>
+        <v>2484.823316167619</v>
       </c>
       <c r="T33" t="n">
-        <v>3870.752568429149</v>
+        <v>2288.761676492846</v>
       </c>
       <c r="U33" t="n">
-        <v>3642.628922227014</v>
+        <v>2060.638030290712</v>
       </c>
       <c r="V33" t="n">
-        <v>3407.476813995272</v>
+        <v>1825.485922058969</v>
       </c>
       <c r="W33" t="n">
-        <v>3153.23945726707</v>
+        <v>1571.248565330768</v>
       </c>
       <c r="X33" t="n">
-        <v>2945.387957061537</v>
+        <v>1363.397065125235</v>
       </c>
       <c r="Y33" t="n">
-        <v>2737.627658296583</v>
+        <v>1155.636766360281</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3171.313376085003</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="C34" t="n">
-        <v>3047.054488523178</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="D34" t="n">
-        <v>3004.26239977633</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="E34" t="n">
-        <v>3004.26239977633</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="F34" t="n">
-        <v>3004.26239977633</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="G34" t="n">
-        <v>2880.525798119128</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="H34" t="n">
-        <v>2772.663933346278</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="I34" t="n">
-        <v>2698.632026107126</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J34" t="n">
-        <v>2738.271317809315</v>
+        <v>124.0158651007104</v>
       </c>
       <c r="K34" t="n">
-        <v>2905.078412637978</v>
+        <v>290.8229599293725</v>
       </c>
       <c r="L34" t="n">
-        <v>3161.81487389172</v>
+        <v>547.5594211831146</v>
       </c>
       <c r="M34" t="n">
-        <v>3440.516279994538</v>
+        <v>826.2608272859327</v>
       </c>
       <c r="N34" t="n">
-        <v>3719.066591943616</v>
+        <v>1104.811139235011</v>
       </c>
       <c r="O34" t="n">
-        <v>3963.679305475117</v>
+        <v>1349.423852766512</v>
       </c>
       <c r="P34" t="n">
-        <v>4155.786890559951</v>
+        <v>1541.531437851345</v>
       </c>
       <c r="Q34" t="n">
-        <v>4218.82866992606</v>
+        <v>1604.573217217454</v>
       </c>
       <c r="R34" t="n">
-        <v>4141.703646881284</v>
+        <v>1604.573217217454</v>
       </c>
       <c r="S34" t="n">
-        <v>3982.303214592632</v>
+        <v>1445.172784928803</v>
       </c>
       <c r="T34" t="n">
-        <v>3802.175727373136</v>
+        <v>1265.045297709307</v>
       </c>
       <c r="U34" t="n">
-        <v>3802.175727373136</v>
+        <v>1035.522349682748</v>
       </c>
       <c r="V34" t="n">
-        <v>3592.168534533331</v>
+        <v>825.5151568429428</v>
       </c>
       <c r="W34" t="n">
-        <v>3347.428659862452</v>
+        <v>580.7752821720637</v>
       </c>
       <c r="X34" t="n">
-        <v>3347.428659862452</v>
+        <v>397.463026640128</v>
       </c>
       <c r="Y34" t="n">
-        <v>3171.313376085003</v>
+        <v>221.3477428626794</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2129.223242340922</v>
+        <v>2129.223242340921</v>
       </c>
       <c r="C35" t="n">
-        <v>1804.938020766592</v>
+        <v>1804.938020766591</v>
       </c>
       <c r="D35" t="n">
         <v>1491.349617525922</v>
       </c>
       <c r="E35" t="n">
-        <v>1150.23866029376</v>
+        <v>1150.238660293759</v>
       </c>
       <c r="F35" t="n">
-        <v>783.9300508702336</v>
+        <v>783.9300508702332</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9497088989203</v>
+        <v>411.9497088989201</v>
       </c>
       <c r="H35" t="n">
-        <v>142.8091056421059</v>
+        <v>142.8091056421057</v>
       </c>
       <c r="I35" t="n">
         <v>84.3765733985212</v>
@@ -6938,7 +6938,7 @@
         <v>308.7979342907984</v>
       </c>
       <c r="K35" t="n">
-        <v>765.8921832796505</v>
+        <v>765.8921832796503</v>
       </c>
       <c r="L35" t="n">
         <v>1385.234645730894</v>
@@ -6953,7 +6953,7 @@
         <v>3411.704527818704</v>
       </c>
       <c r="P35" t="n">
-        <v>3901.643959730235</v>
+        <v>3901.643959730234</v>
       </c>
       <c r="Q35" t="n">
         <v>4192.346309305398</v>
@@ -6968,19 +6968,19 @@
         <v>3948.853234759885</v>
       </c>
       <c r="U35" t="n">
-        <v>3739.873238425213</v>
+        <v>3739.873238425212</v>
       </c>
       <c r="V35" t="n">
-        <v>3453.487646447724</v>
+        <v>3453.487646447722</v>
       </c>
       <c r="W35" t="n">
-        <v>3145.396286543692</v>
+        <v>3145.39628654369</v>
       </c>
       <c r="X35" t="n">
-        <v>2816.607823648693</v>
+        <v>2816.607823648691</v>
       </c>
       <c r="Y35" t="n">
-        <v>2471.145787038962</v>
+        <v>2471.145787038961</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2569.412321276515</v>
+        <v>987.421429340213</v>
       </c>
       <c r="C36" t="n">
-        <v>2394.959291995388</v>
+        <v>812.968400059086</v>
       </c>
       <c r="D36" t="n">
-        <v>2246.024882334137</v>
+        <v>664.0339903978347</v>
       </c>
       <c r="E36" t="n">
-        <v>2086.787427328682</v>
+        <v>504.7965353923793</v>
       </c>
       <c r="F36" t="n">
-        <v>1940.252869355567</v>
+        <v>358.2619774192643</v>
       </c>
       <c r="G36" t="n">
-        <v>1803.041619272625</v>
+        <v>221.0507273363228</v>
       </c>
       <c r="H36" t="n">
-        <v>1704.348382304957</v>
+        <v>122.3574903686547</v>
       </c>
       <c r="I36" t="n">
-        <v>1666.367465334824</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J36" t="n">
-        <v>1666.367465334824</v>
+        <v>224.3470188227222</v>
       </c>
       <c r="K36" t="n">
-        <v>2032.220093844128</v>
+        <v>590.1996473320268</v>
       </c>
       <c r="L36" t="n">
-        <v>2329.34306742729</v>
+        <v>820.1627532003758</v>
       </c>
       <c r="M36" t="n">
-        <v>2649.678386956992</v>
+        <v>1517.861793414578</v>
       </c>
       <c r="N36" t="n">
-        <v>3381.550458084833</v>
+        <v>2136.046327779115</v>
       </c>
       <c r="O36" t="n">
-        <v>3984.654742100804</v>
+        <v>2384.799741863077</v>
       </c>
       <c r="P36" t="n">
-        <v>4167.298219714155</v>
+        <v>2567.443219476428</v>
       </c>
       <c r="Q36" t="n">
-        <v>4218.82866992606</v>
+        <v>2636.837777989757</v>
       </c>
       <c r="R36" t="n">
-        <v>4212.006107296383</v>
+        <v>2630.01521536008</v>
       </c>
       <c r="S36" t="n">
-        <v>4066.814208103921</v>
+        <v>2484.823316167619</v>
       </c>
       <c r="T36" t="n">
-        <v>3870.752568429149</v>
+        <v>2288.761676492846</v>
       </c>
       <c r="U36" t="n">
-        <v>3642.628922227014</v>
+        <v>2060.638030290712</v>
       </c>
       <c r="V36" t="n">
-        <v>3407.476813995272</v>
+        <v>1825.485922058969</v>
       </c>
       <c r="W36" t="n">
-        <v>3153.23945726707</v>
+        <v>1571.248565330768</v>
       </c>
       <c r="X36" t="n">
-        <v>2945.387957061537</v>
+        <v>1363.397065125235</v>
       </c>
       <c r="Y36" t="n">
-        <v>2737.627658296583</v>
+        <v>1155.636766360281</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3315.150194170726</v>
+        <v>627.3851201275914</v>
       </c>
       <c r="C37" t="n">
-        <v>3315.150194170726</v>
+        <v>503.126232565766</v>
       </c>
       <c r="D37" t="n">
-        <v>3209.710850124471</v>
+        <v>397.6868885195118</v>
       </c>
       <c r="E37" t="n">
-        <v>3106.475051908159</v>
+        <v>294.4510903032002</v>
       </c>
       <c r="F37" t="n">
-        <v>3004.26239977633</v>
+        <v>192.2384381713713</v>
       </c>
       <c r="G37" t="n">
-        <v>2880.525798119128</v>
+        <v>192.2384381713713</v>
       </c>
       <c r="H37" t="n">
-        <v>2772.663933346278</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="I37" t="n">
-        <v>2698.632026107126</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J37" t="n">
-        <v>2738.271317809315</v>
+        <v>124.0158651007104</v>
       </c>
       <c r="K37" t="n">
-        <v>2905.078412637978</v>
+        <v>290.8229599293725</v>
       </c>
       <c r="L37" t="n">
-        <v>3161.81487389172</v>
+        <v>547.5594211831146</v>
       </c>
       <c r="M37" t="n">
-        <v>3440.516279994538</v>
+        <v>826.2608272859327</v>
       </c>
       <c r="N37" t="n">
-        <v>3719.066591943616</v>
+        <v>1104.811139235011</v>
       </c>
       <c r="O37" t="n">
-        <v>3963.679305475117</v>
+        <v>1349.423852766512</v>
       </c>
       <c r="P37" t="n">
-        <v>4155.786890559951</v>
+        <v>1541.531437851345</v>
       </c>
       <c r="Q37" t="n">
-        <v>4218.82866992606</v>
+        <v>1604.573217217454</v>
       </c>
       <c r="R37" t="n">
-        <v>4218.82866992606</v>
+        <v>1604.573217217454</v>
       </c>
       <c r="S37" t="n">
-        <v>4218.82866992606</v>
+        <v>1604.573217217454</v>
       </c>
       <c r="T37" t="n">
-        <v>4038.701182706564</v>
+        <v>1604.573217217454</v>
       </c>
       <c r="U37" t="n">
-        <v>3794.236826085671</v>
+        <v>1360.108860596561</v>
       </c>
       <c r="V37" t="n">
-        <v>3794.236826085671</v>
+        <v>1150.101667756756</v>
       </c>
       <c r="W37" t="n">
-        <v>3635.43361916682</v>
+        <v>905.3617930858766</v>
       </c>
       <c r="X37" t="n">
-        <v>3452.121363634884</v>
+        <v>803.50040390504</v>
       </c>
       <c r="Y37" t="n">
-        <v>3452.121363634884</v>
+        <v>627.3851201275914</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1150.238660293758</v>
       </c>
       <c r="F38" t="n">
-        <v>783.9300508702323</v>
+        <v>783.9300508702321</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9497088989191</v>
+        <v>411.9497088989189</v>
       </c>
       <c r="H38" t="n">
         <v>142.8091056421046</v>
@@ -7175,19 +7175,19 @@
         <v>308.7979342907984</v>
       </c>
       <c r="K38" t="n">
-        <v>765.8921832796503</v>
+        <v>765.89218327965</v>
       </c>
       <c r="L38" t="n">
         <v>1385.234645730894</v>
       </c>
       <c r="M38" t="n">
-        <v>2090.979015197605</v>
+        <v>2090.979015197604</v>
       </c>
       <c r="N38" t="n">
         <v>2793.511068849496</v>
       </c>
       <c r="O38" t="n">
-        <v>3411.704527818704</v>
+        <v>3411.704527818703</v>
       </c>
       <c r="P38" t="n">
         <v>3901.643959730234</v>
@@ -7199,10 +7199,10 @@
         <v>4218.82866992606</v>
       </c>
       <c r="S38" t="n">
-        <v>4117.092843900498</v>
+        <v>4117.092843900497</v>
       </c>
       <c r="T38" t="n">
-        <v>3948.853234759885</v>
+        <v>3948.853234759884</v>
       </c>
       <c r="U38" t="n">
         <v>3739.873238425211</v>
@@ -7217,7 +7217,7 @@
         <v>2816.607823648691</v>
       </c>
       <c r="Y38" t="n">
-        <v>2471.145787038961</v>
+        <v>2471.14578703896</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7260,16 @@
         <v>903.0429832167329</v>
       </c>
       <c r="M39" t="n">
-        <v>1542.700685048484</v>
+        <v>1317.015452339463</v>
       </c>
       <c r="N39" t="n">
-        <v>1887.221340686102</v>
+        <v>1661.536107977081</v>
       </c>
       <c r="O39" t="n">
-        <v>2100.40192861811</v>
+        <v>1910.289522061043</v>
       </c>
       <c r="P39" t="n">
-        <v>2567.443219476428</v>
+        <v>2377.330812919362</v>
       </c>
       <c r="Q39" t="n">
         <v>2636.837777989757</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3315.672480075349</v>
+        <v>314.0748050066008</v>
       </c>
       <c r="C40" t="n">
-        <v>3191.413592513523</v>
+        <v>189.8159174447754</v>
       </c>
       <c r="D40" t="n">
-        <v>3085.974248467269</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="E40" t="n">
-        <v>2982.738450250957</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="F40" t="n">
-        <v>2880.525798119128</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="G40" t="n">
-        <v>2880.525798119128</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="H40" t="n">
-        <v>2772.663933346278</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="I40" t="n">
-        <v>2698.632026107126</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J40" t="n">
-        <v>2738.271317809315</v>
+        <v>124.0158651007104</v>
       </c>
       <c r="K40" t="n">
-        <v>2905.078412637978</v>
+        <v>290.8229599293725</v>
       </c>
       <c r="L40" t="n">
-        <v>3161.81487389172</v>
+        <v>547.5594211831146</v>
       </c>
       <c r="M40" t="n">
-        <v>3440.516279994538</v>
+        <v>826.2608272859327</v>
       </c>
       <c r="N40" t="n">
-        <v>3719.066591943616</v>
+        <v>1104.811139235011</v>
       </c>
       <c r="O40" t="n">
-        <v>3963.679305475117</v>
+        <v>1349.423852766512</v>
       </c>
       <c r="P40" t="n">
-        <v>4155.786890559951</v>
+        <v>1541.531437851345</v>
       </c>
       <c r="Q40" t="n">
-        <v>4218.82866992606</v>
+        <v>1604.573217217454</v>
       </c>
       <c r="R40" t="n">
-        <v>4218.82866992606</v>
+        <v>1604.573217217454</v>
       </c>
       <c r="S40" t="n">
-        <v>4059.428237637408</v>
+        <v>1604.573217217454</v>
       </c>
       <c r="T40" t="n">
-        <v>4059.428237637408</v>
+        <v>1509.684937911721</v>
       </c>
       <c r="U40" t="n">
-        <v>4059.428237637408</v>
+        <v>1265.220581290828</v>
       </c>
       <c r="V40" t="n">
-        <v>3849.421044797602</v>
+        <v>1055.213388451022</v>
       </c>
       <c r="W40" t="n">
-        <v>3604.681170126723</v>
+        <v>810.4735137801433</v>
       </c>
       <c r="X40" t="n">
-        <v>3604.681170126723</v>
+        <v>627.1612582482076</v>
       </c>
       <c r="Y40" t="n">
-        <v>3452.643649539507</v>
+        <v>451.045974470759</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2129.22324234092</v>
+        <v>2129.223242340921</v>
       </c>
       <c r="C41" t="n">
-        <v>1804.93802076659</v>
+        <v>1804.938020766591</v>
       </c>
       <c r="D41" t="n">
-        <v>1491.349617525921</v>
+        <v>1491.349617525922</v>
       </c>
       <c r="E41" t="n">
-        <v>1150.238660293758</v>
+        <v>1150.238660293759</v>
       </c>
       <c r="F41" t="n">
-        <v>783.9300508702323</v>
+        <v>783.9300508702332</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9497088989191</v>
+        <v>411.9497088989201</v>
       </c>
       <c r="H41" t="n">
-        <v>142.8091056421046</v>
+        <v>142.8091056421057</v>
       </c>
       <c r="I41" t="n">
         <v>84.3765733985212</v>
       </c>
       <c r="J41" t="n">
-        <v>308.7979342907984</v>
+        <v>308.7979342907987</v>
       </c>
       <c r="K41" t="n">
-        <v>765.89218327965</v>
+        <v>765.8921832796505</v>
       </c>
       <c r="L41" t="n">
         <v>1385.234645730894</v>
       </c>
       <c r="M41" t="n">
-        <v>2090.979015197604</v>
+        <v>2090.979015197605</v>
       </c>
       <c r="N41" t="n">
         <v>2793.511068849496</v>
       </c>
       <c r="O41" t="n">
-        <v>3411.704527818703</v>
+        <v>3411.704527818704</v>
       </c>
       <c r="P41" t="n">
         <v>3901.643959730234</v>
@@ -7442,13 +7442,13 @@
         <v>3948.853234759885</v>
       </c>
       <c r="U41" t="n">
-        <v>3739.873238425211</v>
+        <v>3739.873238425212</v>
       </c>
       <c r="V41" t="n">
         <v>3453.487646447722</v>
       </c>
       <c r="W41" t="n">
-        <v>3145.396286543689</v>
+        <v>3145.39628654369</v>
       </c>
       <c r="X41" t="n">
         <v>2816.607823648691</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2569.412321276515</v>
+        <v>987.421429340213</v>
       </c>
       <c r="C42" t="n">
-        <v>2394.959291995388</v>
+        <v>812.968400059086</v>
       </c>
       <c r="D42" t="n">
-        <v>2246.024882334137</v>
+        <v>664.0339903978347</v>
       </c>
       <c r="E42" t="n">
-        <v>2086.787427328682</v>
+        <v>504.7965353923793</v>
       </c>
       <c r="F42" t="n">
-        <v>1940.252869355567</v>
+        <v>358.2619774192643</v>
       </c>
       <c r="G42" t="n">
-        <v>1803.041619272625</v>
+        <v>221.0507273363228</v>
       </c>
       <c r="H42" t="n">
-        <v>1704.348382304957</v>
+        <v>122.3574903686547</v>
       </c>
       <c r="I42" t="n">
-        <v>1666.367465334824</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J42" t="n">
-        <v>1806.337910759025</v>
+        <v>224.3470188227222</v>
       </c>
       <c r="K42" t="n">
-        <v>1931.695470816862</v>
+        <v>590.1996473320268</v>
       </c>
       <c r="L42" t="n">
-        <v>2117.901933302611</v>
+        <v>820.1627532003758</v>
       </c>
       <c r="M42" t="n">
-        <v>2815.600973516813</v>
+        <v>1140.498072730078</v>
       </c>
       <c r="N42" t="n">
-        <v>3173.573943226343</v>
+        <v>1591.583051290041</v>
       </c>
       <c r="O42" t="n">
-        <v>3776.678227242313</v>
+        <v>2194.687335306011</v>
       </c>
       <c r="P42" t="n">
-        <v>3959.321704855664</v>
+        <v>2377.330812919362</v>
       </c>
       <c r="Q42" t="n">
-        <v>4218.82866992606</v>
+        <v>2636.837777989757</v>
       </c>
       <c r="R42" t="n">
-        <v>4212.006107296383</v>
+        <v>2630.01521536008</v>
       </c>
       <c r="S42" t="n">
-        <v>4066.814208103921</v>
+        <v>2484.823316167619</v>
       </c>
       <c r="T42" t="n">
-        <v>3870.752568429149</v>
+        <v>2288.761676492846</v>
       </c>
       <c r="U42" t="n">
-        <v>3642.628922227014</v>
+        <v>2060.638030290712</v>
       </c>
       <c r="V42" t="n">
-        <v>3407.476813995272</v>
+        <v>1825.485922058969</v>
       </c>
       <c r="W42" t="n">
-        <v>3153.23945726707</v>
+        <v>1571.248565330768</v>
       </c>
       <c r="X42" t="n">
-        <v>2945.387957061537</v>
+        <v>1363.397065125235</v>
       </c>
       <c r="Y42" t="n">
-        <v>2737.627658296583</v>
+        <v>1155.636766360281</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3259.937830447145</v>
+        <v>661.6418602706792</v>
       </c>
       <c r="C43" t="n">
-        <v>3135.67894288532</v>
+        <v>537.3829727088538</v>
       </c>
       <c r="D43" t="n">
-        <v>3135.67894288532</v>
+        <v>537.3829727088538</v>
       </c>
       <c r="E43" t="n">
-        <v>3032.443144669008</v>
+        <v>434.1471744925422</v>
       </c>
       <c r="F43" t="n">
-        <v>2930.230492537179</v>
+        <v>390.006947067725</v>
       </c>
       <c r="G43" t="n">
-        <v>2806.493890879977</v>
+        <v>266.2703454105226</v>
       </c>
       <c r="H43" t="n">
-        <v>2698.632026107126</v>
+        <v>158.4084806376725</v>
       </c>
       <c r="I43" t="n">
-        <v>2698.632026107126</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J43" t="n">
-        <v>2738.271317809315</v>
+        <v>124.0158651007104</v>
       </c>
       <c r="K43" t="n">
-        <v>2905.078412637978</v>
+        <v>290.8229599293725</v>
       </c>
       <c r="L43" t="n">
-        <v>3161.81487389172</v>
+        <v>547.5594211831146</v>
       </c>
       <c r="M43" t="n">
-        <v>3440.516279994538</v>
+        <v>826.2608272859327</v>
       </c>
       <c r="N43" t="n">
-        <v>3719.066591943616</v>
+        <v>1104.811139235011</v>
       </c>
       <c r="O43" t="n">
-        <v>3963.679305475117</v>
+        <v>1349.423852766512</v>
       </c>
       <c r="P43" t="n">
-        <v>4155.786890559951</v>
+        <v>1541.531437851345</v>
       </c>
       <c r="Q43" t="n">
-        <v>4218.82866992606</v>
+        <v>1604.573217217454</v>
       </c>
       <c r="R43" t="n">
-        <v>4141.703646881284</v>
+        <v>1527.448194172679</v>
       </c>
       <c r="S43" t="n">
-        <v>3982.303214592632</v>
+        <v>1368.047761884027</v>
       </c>
       <c r="T43" t="n">
-        <v>3890.800181735278</v>
+        <v>1368.047761884027</v>
       </c>
       <c r="U43" t="n">
-        <v>3890.800181735278</v>
+        <v>1368.047761884027</v>
       </c>
       <c r="V43" t="n">
-        <v>3680.792988895473</v>
+        <v>1158.040569044222</v>
       </c>
       <c r="W43" t="n">
-        <v>3436.053114224594</v>
+        <v>1158.040569044222</v>
       </c>
       <c r="X43" t="n">
-        <v>3436.053114224594</v>
+        <v>974.7283135122859</v>
       </c>
       <c r="Y43" t="n">
-        <v>3259.937830447145</v>
+        <v>798.6130297348374</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1918.218000803911</v>
+        <v>2131.134905310606</v>
       </c>
       <c r="C44" t="n">
-        <v>1549.255483863499</v>
+        <v>1969.891965353414</v>
       </c>
       <c r="D44" t="n">
-        <v>1190.989785256749</v>
+        <v>1611.626266746664</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.989785256749</v>
+        <v>1225.838014148419</v>
       </c>
       <c r="F44" t="n">
-        <v>780.003880467141</v>
+        <v>814.8521093588117</v>
       </c>
       <c r="G44" t="n">
-        <v>363.3462431297464</v>
+        <v>398.194472021417</v>
       </c>
       <c r="H44" t="n">
-        <v>84.37657339852117</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="I44" t="n">
-        <v>84.37657339852117</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J44" t="n">
-        <v>308.7979342907986</v>
+        <v>308.7979342907987</v>
       </c>
       <c r="K44" t="n">
-        <v>765.8921832796503</v>
+        <v>765.8921832796505</v>
       </c>
       <c r="L44" t="n">
         <v>1385.234645730894</v>
       </c>
       <c r="M44" t="n">
-        <v>2090.979015197604</v>
+        <v>2090.979015197605</v>
       </c>
       <c r="N44" t="n">
         <v>2793.511068849496</v>
       </c>
       <c r="O44" t="n">
-        <v>3411.704527818703</v>
+        <v>3411.704527818704</v>
       </c>
       <c r="P44" t="n">
-        <v>3901.643959730233</v>
+        <v>3901.643959730234</v>
       </c>
       <c r="Q44" t="n">
-        <v>4192.346309305397</v>
+        <v>4192.346309305398</v>
       </c>
       <c r="R44" t="n">
-        <v>4218.828669926059</v>
+        <v>4218.82866992606</v>
       </c>
       <c r="S44" t="n">
-        <v>4218.828669926059</v>
+        <v>4218.82866992606</v>
       </c>
       <c r="T44" t="n">
-        <v>4005.911765419364</v>
+        <v>4218.82866992606</v>
       </c>
       <c r="U44" t="n">
-        <v>3752.254473718609</v>
+        <v>3965.171378225305</v>
       </c>
       <c r="V44" t="n">
-        <v>3421.191586375038</v>
+        <v>3634.108490881734</v>
       </c>
       <c r="W44" t="n">
-        <v>3068.422931104924</v>
+        <v>3281.33983561162</v>
       </c>
       <c r="X44" t="n">
-        <v>2694.957172843844</v>
+        <v>2907.87407735054</v>
       </c>
       <c r="Y44" t="n">
-        <v>2304.817840868032</v>
+        <v>2517.734745374728</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>122.3574903686547</v>
       </c>
       <c r="I45" t="n">
-        <v>84.37657339852117</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J45" t="n">
-        <v>224.3470188227222</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="K45" t="n">
-        <v>590.1996473320268</v>
+        <v>209.7341334563586</v>
       </c>
       <c r="L45" t="n">
-        <v>776.4061098177755</v>
+        <v>763.0725377925319</v>
       </c>
       <c r="M45" t="n">
-        <v>1013.057136919478</v>
+        <v>1460.771578006734</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.185238045073</v>
+        <v>1805.292233644352</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.289522061043</v>
+        <v>2384.799741863077</v>
       </c>
       <c r="P45" t="n">
-        <v>2377.330812919362</v>
+        <v>2567.443219476428</v>
       </c>
       <c r="Q45" t="n">
         <v>2636.837777989757</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>197.5218273655315</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="C46" t="n">
-        <v>197.5218273655315</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="D46" t="n">
-        <v>197.5218273655315</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="E46" t="n">
-        <v>197.5218273655315</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="F46" t="n">
-        <v>197.5218273655315</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="G46" t="n">
-        <v>197.5218273655315</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="H46" t="n">
-        <v>84.37657339852117</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="I46" t="n">
-        <v>84.37657339852117</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="J46" t="n">
-        <v>84.37657339852117</v>
+        <v>84.3765733985212</v>
       </c>
       <c r="K46" t="n">
         <v>207.3954510388868</v>
       </c>
       <c r="L46" t="n">
-        <v>420.3436951043324</v>
+        <v>420.3436951043325</v>
       </c>
       <c r="M46" t="n">
-        <v>655.256884018854</v>
+        <v>655.2568840188541</v>
       </c>
       <c r="N46" t="n">
-        <v>890.0189787796355</v>
+        <v>890.0189787796356</v>
       </c>
       <c r="O46" t="n">
         <v>1090.84347512284</v>
@@ -7828,28 +7828,28 @@
         <v>1258.41640519719</v>
       </c>
       <c r="R46" t="n">
-        <v>1136.614086786333</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="S46" t="n">
-        <v>932.5363591315995</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="T46" t="n">
-        <v>707.7315765460222</v>
+        <v>1258.41640519719</v>
       </c>
       <c r="U46" t="n">
-        <v>707.7315765460222</v>
+        <v>969.274753210215</v>
       </c>
       <c r="V46" t="n">
-        <v>707.7315765460222</v>
+        <v>714.5902650043281</v>
       </c>
       <c r="W46" t="n">
-        <v>418.3144065090616</v>
+        <v>714.5902650043281</v>
       </c>
       <c r="X46" t="n">
-        <v>418.3144065090616</v>
+        <v>486.6007141063108</v>
       </c>
       <c r="Y46" t="n">
-        <v>197.5218273655315</v>
+        <v>265.8081349627806</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747161</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9009,10 +9009,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>62.88693284809739</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>279.4759854675916</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>246.9274189609904</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>407.077449222271</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11379,13 +11379,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>37.17674807865859</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.642381213387</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>102.0787293335682</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>205.6423812133869</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.7297580530511</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.0137685375423</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>117.5221105791805</v>
       </c>
       <c r="J13" t="n">
         <v>4.190833824350833</v>
@@ -23464,7 +23464,7 @@
         <v>120.5842952267485</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>202.0369503781859</v>
       </c>
       <c r="T13" t="n">
         <v>222.5567347597215</v>
@@ -23473,10 +23473,10 @@
         <v>286.250235467105</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0.4874971028063726</v>
       </c>
       <c r="W13" t="n">
-        <v>218.9226832738872</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>310.6797196366668</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>102.0787293335682</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>144.9489901777261</v>
       </c>
       <c r="T14" t="n">
-        <v>25.02585807950763</v>
+        <v>210.7877354616281</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>205.6423812133869</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.7297580530511</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>151.0137685375423</v>
       </c>
       <c r="I16" t="n">
-        <v>86.0384754082761</v>
+        <v>117.5221105791805</v>
       </c>
       <c r="J16" t="n">
         <v>4.190833824350833</v>
@@ -23701,16 +23701,16 @@
         <v>120.5842952267485</v>
       </c>
       <c r="S16" t="n">
-        <v>202.0369503781859</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.250235467105</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>53.65213881301648</v>
       </c>
     </row>
     <row r="17">
@@ -23738,16 +23738,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>136.5784759363212</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>310.6797196366668</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>144.9489901777261</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.537147832229437</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23905,13 +23905,13 @@
         <v>166.7297580530511</v>
       </c>
       <c r="H19" t="n">
-        <v>151.0137685375423</v>
+        <v>32.2098655364793</v>
       </c>
       <c r="I19" t="n">
         <v>117.5221105791805</v>
       </c>
       <c r="J19" t="n">
-        <v>4.190833824350818</v>
+        <v>4.190833824350833</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>120.5842952267485</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.0369503781859</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.5567347597215</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>207.7894240114979</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>308.7747945656263</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>310.6797196366668</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>102.0787293335682</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>39.91165175444662</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.7877354616281</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.0137685375423</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>117.5221105791805</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>4.190833824350833</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.5842952267485</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>161.2509039266864</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.5567347597215</v>
       </c>
       <c r="U22" t="n">
         <v>286.250235467105</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.2693047227905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>102.0787293335682</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,16 +24254,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>144.9489901777261</v>
+        <v>124.9178422545464</v>
       </c>
       <c r="T23" t="n">
         <v>210.7877354616281</v>
       </c>
       <c r="U23" t="n">
-        <v>205.6423812133872</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7297580530511</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.0137685375423</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>117.5221105791805</v>
@@ -24412,16 +24412,16 @@
         <v>120.5842952267485</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.0369503781859</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.5567347597215</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>126.7889328840049</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.0861014595863</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24443,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>308.7747945656263</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>412.4910609640207</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>250.9667752222884</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>134.0064781705881</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24622,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4.190833824350833</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>120.5842952267485</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>202.0369503781859</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.5567347597215</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.250235467105</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.7953581717423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.6014577695167</v>
+        <v>135.6014577695166</v>
       </c>
       <c r="C31" t="n">
-        <v>123.0162986862072</v>
+        <v>123.0162986862071</v>
       </c>
       <c r="D31" t="n">
-        <v>104.3849506057917</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>102.2034402341485</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>101.1905256105105</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>122.4992356406304</v>
       </c>
       <c r="H31" t="n">
-        <v>106.7832461251217</v>
+        <v>106.7832461251216</v>
       </c>
       <c r="I31" t="n">
-        <v>73.29158816675984</v>
+        <v>73.29158816675978</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>59.92926015899418</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>179.2340708043447</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135.6014577695167</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>123.0162986862071</v>
       </c>
       <c r="D34" t="n">
-        <v>62.02078274641259</v>
+        <v>104.3849506057917</v>
       </c>
       <c r="E34" t="n">
-        <v>102.2034402341486</v>
+        <v>102.2034402341485</v>
       </c>
       <c r="F34" t="n">
-        <v>101.1905256105106</v>
+        <v>101.1905256105105</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>122.4992356406304</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>106.7832461251216</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>73.29158816675978</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>76.35377281432777</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>242.0197130546844</v>
+        <v>14.79199450839127</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>181.4791329766165</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>135.6014577695166</v>
       </c>
       <c r="C37" t="n">
-        <v>123.0162986862072</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>122.4992356406304</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>73.29158816675978</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>76.35377281432785</v>
+        <v>76.35377281432777</v>
       </c>
       <c r="S37" t="n">
-        <v>157.8064279657653</v>
+        <v>157.8064279657652</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>178.3262123473008</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>207.9071209114074</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>85.0773010745082</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>80.63635768758826</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3541309396742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>102.2034402341485</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>101.1905256105105</v>
       </c>
       <c r="G40" t="n">
-        <v>122.4992356406305</v>
+        <v>122.4992356406304</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>106.7832461251216</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>73.29158816675978</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>76.35377281432785</v>
+        <v>76.35377281432777</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.8064279657652</v>
       </c>
       <c r="T40" t="n">
-        <v>178.3262123473009</v>
+        <v>84.38681583462487</v>
       </c>
       <c r="U40" t="n">
-        <v>242.0197130546844</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>181.4791329766165</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>23.83698555832987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>135.6014577695167</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>57.49170045994155</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>73.29158816675987</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25837,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>87.73820981852052</v>
+        <v>178.3262123473008</v>
       </c>
       <c r="U43" t="n">
-        <v>242.0197130546844</v>
+        <v>242.0197130546843</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>242.2924759241703</v>
       </c>
       <c r="X43" t="n">
-        <v>181.4791329766165</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,13 +25865,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.642381213387</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>34.49974660275399</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>102.0787293335682</v>
@@ -25916,7 +25916,7 @@
         <v>144.9489901777261</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.7877354616281</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0.2147342333204847</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26038,13 +26038,13 @@
         <v>166.7297580530511</v>
       </c>
       <c r="H46" t="n">
-        <v>38.99996711020211</v>
+        <v>151.0137685375423</v>
       </c>
       <c r="I46" t="n">
         <v>117.5221105791805</v>
       </c>
       <c r="J46" t="n">
-        <v>4.190833824350847</v>
+        <v>4.190833824350833</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>120.5842952267485</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>202.0369503781859</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.5567347597215</v>
       </c>
       <c r="U46" t="n">
-        <v>286.250235467105</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723132.3783746928</v>
+        <v>723132.3783746929</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>723132.3783746928</v>
+        <v>723132.3783746929</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723132.3783746928</v>
+        <v>723132.3783746929</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801253.4086068782</v>
+        <v>801253.4086068784</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801253.4086068782</v>
+        <v>801253.4086068785</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>801253.4086068784</v>
+        <v>801253.4086068785</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>542349.2837810189</v>
+      </c>
+      <c r="F2" t="n">
         <v>542349.2837810196</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>542349.2837810195</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>542349.2837810196</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>542349.2837810193</v>
       </c>
-      <c r="I2" t="n">
-        <v>542349.2837810197</v>
-      </c>
       <c r="J2" t="n">
-        <v>542349.2837810194</v>
+        <v>542349.2837810195</v>
       </c>
       <c r="K2" t="n">
+        <v>600940.0564551575</v>
+      </c>
+      <c r="L2" t="n">
+        <v>600940.056455157</v>
+      </c>
+      <c r="M2" t="n">
+        <v>600940.0564551572</v>
+      </c>
+      <c r="N2" t="n">
         <v>600940.0564551571</v>
-      </c>
-      <c r="L2" t="n">
-        <v>600940.0564551573</v>
-      </c>
-      <c r="M2" t="n">
-        <v>600940.0564551575</v>
-      </c>
-      <c r="N2" t="n">
-        <v>600940.0564551573</v>
       </c>
       <c r="O2" t="n">
         <v>600940.0564551575</v>
       </c>
       <c r="P2" t="n">
-        <v>542349.2837810196</v>
+        <v>542349.2837810195</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>372008.3255932818</v>
+        <v>372008.3255932817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>35384.41792993648</v>
+        <v>35384.41792993656</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>94802.15944553721</v>
+        <v>94802.15944553715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26436,28 +26436,28 @@
         <v>705.3086332142856</v>
       </c>
       <c r="I4" t="n">
-        <v>705.3086332142855</v>
+        <v>705.3086332142856</v>
       </c>
       <c r="J4" t="n">
         <v>705.3086332142855</v>
       </c>
       <c r="K4" t="n">
-        <v>45402.12304654813</v>
+        <v>45402.1230465482</v>
       </c>
       <c r="L4" t="n">
-        <v>45402.12304654811</v>
+        <v>45402.1230465482</v>
       </c>
       <c r="M4" t="n">
-        <v>45402.1230465481</v>
+        <v>45402.1230465482</v>
       </c>
       <c r="N4" t="n">
-        <v>45402.12304654811</v>
+        <v>45402.1230465482</v>
       </c>
       <c r="O4" t="n">
-        <v>45402.12304654811</v>
+        <v>45402.12304654821</v>
       </c>
       <c r="P4" t="n">
-        <v>705.3086332142855</v>
+        <v>705.3086332142856</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26497,19 +26497,19 @@
         <v>83091.63058912149</v>
       </c>
       <c r="L5" t="n">
-        <v>83091.63058912147</v>
+        <v>83091.63058912149</v>
       </c>
       <c r="M5" t="n">
-        <v>83091.63058912147</v>
+        <v>83091.63058912149</v>
       </c>
       <c r="N5" t="n">
-        <v>83091.63058912147</v>
+        <v>83091.63058912149</v>
       </c>
       <c r="O5" t="n">
-        <v>83091.63058912147</v>
+        <v>83091.63058912149</v>
       </c>
       <c r="P5" t="n">
-        <v>79373.21480043167</v>
+        <v>79373.21480043168</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603606</v>
+        <v>-196104.7690603604</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.110154184</v>
+        <v>393863.1101541842</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.110154184</v>
+        <v>393863.1101541839</v>
       </c>
       <c r="E6" t="n">
-        <v>90262.43475409187</v>
+        <v>90262.43475409131</v>
       </c>
       <c r="F6" t="n">
-        <v>462270.7603473735</v>
+        <v>462270.7603473737</v>
       </c>
       <c r="G6" t="n">
         <v>462270.7603473736</v>
       </c>
       <c r="H6" t="n">
+        <v>462270.7603473737</v>
+      </c>
+      <c r="I6" t="n">
         <v>462270.7603473733</v>
-      </c>
-      <c r="I6" t="n">
-        <v>462270.7603473737</v>
       </c>
       <c r="J6" t="n">
         <v>285847.5411547805</v>
       </c>
       <c r="K6" t="n">
-        <v>437061.8848895511</v>
+        <v>437061.8848895512</v>
       </c>
       <c r="L6" t="n">
+        <v>472446.3028194873</v>
+      </c>
+      <c r="M6" t="n">
+        <v>377644.1433739504</v>
+      </c>
+      <c r="N6" t="n">
+        <v>472446.3028194874</v>
+      </c>
+      <c r="O6" t="n">
         <v>472446.3028194878</v>
-      </c>
-      <c r="M6" t="n">
-        <v>377644.1433739507</v>
-      </c>
-      <c r="N6" t="n">
-        <v>472446.3028194878</v>
-      </c>
-      <c r="O6" t="n">
-        <v>472446.3028194879</v>
       </c>
       <c r="P6" t="n">
         <v>462270.7603473736</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="L2" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="M2" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="N2" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="O2" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,7 +26750,7 @@
         <v>699.4045420897055</v>
       </c>
       <c r="G3" t="n">
-        <v>699.4045420897056</v>
+        <v>699.4045420897055</v>
       </c>
       <c r="H3" t="n">
         <v>699.4045420897055</v>
@@ -26777,7 +26777,7 @@
         <v>699.4045420897055</v>
       </c>
       <c r="P3" t="n">
-        <v>699.4045420897054</v>
+        <v>699.4045420897055</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1054.707167481515</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4198947269595</v>
+        <v>380.4198947269592</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4198947269595</v>
+        <v>380.4198947269592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4198947269595</v>
+        <v>380.4198947269592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>26.1138694465148</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>69.42772111999244</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>117.5062691663786</v>
+        <v>23.08954609309509</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.02939529397304</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>154.4009807702106</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>11.05637510633784</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>41.25137849404621</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.6463995071185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>84.67773875262112</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="C29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="D29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="E29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="F29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="G29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="H29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="I29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="T29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="U29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="V29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="W29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="X29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Y29" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="C31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="D31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="E31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="F31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="G31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="H31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="I31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="J31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="K31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="L31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="M31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="N31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="O31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="P31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="R31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="S31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="T31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="U31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="V31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="W31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="X31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.23052241242064</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="C32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="D32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="E32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="F32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="G32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="H32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="I32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="T32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="U32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="V32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="W32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="X32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Y32" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="C34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="D34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="E34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="F34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="G34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="H34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="I34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="J34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="K34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="L34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="M34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="N34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="O34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="P34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="R34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="S34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="T34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="U34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="V34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="W34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="X34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="C35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="D35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="E35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="F35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="G35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="H35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="I35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="T35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="U35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="V35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="W35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="X35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Y35" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="C37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="D37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="E37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="F37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="G37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="H37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="I37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="J37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="K37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="L37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="M37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="N37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="O37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="P37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="R37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="S37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="T37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="U37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="V37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="W37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="X37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="C38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="D38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="E38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="F38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="G38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="H38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="I38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="T38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="U38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="V38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="W38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="X38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Y38" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="C40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="D40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="E40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="F40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="G40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="H40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="I40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="J40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="K40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="L40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="M40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="N40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="O40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="P40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="R40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="S40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="T40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="U40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="V40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="W40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="X40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="C41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="D41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="E41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="F41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="G41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="H41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="I41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="T41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="U41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="V41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="W41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="X41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Y41" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="C43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="D43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="E43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="F43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="G43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="H43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="I43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="J43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="K43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="L43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="M43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="N43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="O43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="P43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="R43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="S43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="T43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="U43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="V43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="W43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="X43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.2305224124206</v>
+        <v>44.2305224124207</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396482</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M4" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653214</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529164</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31838,7 +31838,7 @@
         <v>51.79552505098292</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>381.1754754388895</v>
+        <v>5.447489515038797</v>
       </c>
       <c r="N12" t="n">
         <v>391.2640560507306</v>
@@ -31859,7 +31859,7 @@
         <v>287.2705184292604</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.97707782614907</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>93.40349714926298</v>
@@ -32078,25 +32078,25 @@
         <v>142.1308796335316</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>242.9243115671386</v>
       </c>
       <c r="L15" t="n">
         <v>326.6417156240648</v>
       </c>
       <c r="M15" t="n">
-        <v>381.1754754388895</v>
+        <v>138.9291862490189</v>
       </c>
       <c r="N15" t="n">
-        <v>391.2640560507306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>357.9301716484929</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>287.2705184292604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>192.0327338960263</v>
       </c>
       <c r="R15" t="n">
         <v>93.40349714926298</v>
@@ -32227,31 +32227,31 @@
         <v>2.811676551114392</v>
       </c>
       <c r="H17" t="n">
-        <v>28.79508247910028</v>
+        <v>28.79508247910027</v>
       </c>
       <c r="I17" t="n">
         <v>108.3971602368377</v>
       </c>
       <c r="J17" t="n">
-        <v>238.6375326801454</v>
+        <v>238.6375326801453</v>
       </c>
       <c r="K17" t="n">
-        <v>357.6558010888177</v>
+        <v>357.6558010888176</v>
       </c>
       <c r="L17" t="n">
-        <v>443.7036473399849</v>
+        <v>443.7036473399848</v>
       </c>
       <c r="M17" t="n">
-        <v>493.7058002058654</v>
+        <v>493.7058002058653</v>
       </c>
       <c r="N17" t="n">
-        <v>501.6944762067192</v>
+        <v>501.6944762067191</v>
       </c>
       <c r="O17" t="n">
-        <v>473.7358675015755</v>
+        <v>473.7358675015753</v>
       </c>
       <c r="P17" t="n">
-        <v>404.3226026459388</v>
+        <v>404.3226026459387</v>
       </c>
       <c r="Q17" t="n">
         <v>303.6294361591545</v>
@@ -32260,7 +32260,7 @@
         <v>176.6189771539396</v>
       </c>
       <c r="S17" t="n">
-        <v>64.07107940851928</v>
+        <v>64.07107940851927</v>
       </c>
       <c r="T17" t="n">
         <v>12.30811410250326</v>
@@ -32312,40 +32312,40 @@
         <v>51.79552505098292</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>142.1308796335316</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>242.9243115671386</v>
       </c>
       <c r="L18" t="n">
-        <v>326.6417156240649</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>381.1754754388895</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>346.5236739800486</v>
       </c>
       <c r="O18" t="n">
-        <v>357.930171648493</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>287.2705184292604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>93.40349714926299</v>
+        <v>93.40349714926298</v>
       </c>
       <c r="S18" t="n">
-        <v>27.94319090330096</v>
+        <v>27.94319090330095</v>
       </c>
       <c r="T18" t="n">
-        <v>6.063705416796597</v>
+        <v>6.063705416796595</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09897234086175084</v>
+        <v>0.09897234086175082</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,16 +32391,16 @@
         <v>37.92836434807781</v>
       </c>
       <c r="J19" t="n">
-        <v>89.16834629232196</v>
+        <v>89.16834629232194</v>
       </c>
       <c r="K19" t="n">
-        <v>146.5309843919088</v>
+        <v>146.5309843919087</v>
       </c>
       <c r="L19" t="n">
-        <v>187.509211169427</v>
+        <v>187.5092111694269</v>
       </c>
       <c r="M19" t="n">
-        <v>197.7021724467671</v>
+        <v>197.702172446767</v>
       </c>
       <c r="N19" t="n">
         <v>193.0012566720659</v>
@@ -32415,7 +32415,7 @@
         <v>105.6100858555455</v>
       </c>
       <c r="R19" t="n">
-        <v>56.70909615042103</v>
+        <v>56.70909615042102</v>
       </c>
       <c r="S19" t="n">
         <v>21.97964765878631</v>
@@ -32424,7 +32424,7 @@
         <v>5.388854668560024</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06879388938587276</v>
+        <v>0.06879388938587275</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,22 +32555,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>255.3272572584959</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>317.2311573894917</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>391.2640560507306</v>
       </c>
       <c r="O21" t="n">
-        <v>357.9301716484929</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>287.2705184292604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>192.0327338960263</v>
       </c>
       <c r="R21" t="n">
         <v>93.40349714926298</v>
@@ -32786,28 +32786,28 @@
         <v>51.79552505098292</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>142.1308796335316</v>
       </c>
       <c r="K24" t="n">
-        <v>166.1264073808438</v>
+        <v>242.9243115671386</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>326.6417156240648</v>
       </c>
       <c r="M24" t="n">
-        <v>381.1754754388895</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>391.2640560507306</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>357.9301716484929</v>
+        <v>330.9619201450454</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>93.40349714926298</v>
@@ -33032,7 +33032,7 @@
         <v>326.6417156240648</v>
       </c>
       <c r="M27" t="n">
-        <v>381.1754754388895</v>
+        <v>21.56076884930889</v>
       </c>
       <c r="N27" t="n">
         <v>391.2640560507306</v>
@@ -33044,7 +33044,7 @@
         <v>287.2705184292604</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>192.0327338960263</v>
       </c>
       <c r="R27" t="n">
         <v>93.40349714926298</v>
@@ -33263,25 +33263,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>242.9243115671386</v>
       </c>
       <c r="L30" t="n">
-        <v>36.17888719270081</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>381.1754754388895</v>
       </c>
       <c r="N30" t="n">
-        <v>391.2640560507306</v>
+        <v>130.5419302082345</v>
       </c>
       <c r="O30" t="n">
-        <v>357.9301716484929</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>287.2705184292604</v>
       </c>
       <c r="Q30" t="n">
-        <v>192.0327338960263</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>93.40349714926298</v>
@@ -33503,19 +33503,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>326.6417156240648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>381.1754754388895</v>
       </c>
       <c r="N33" t="n">
-        <v>390.1092911538673</v>
+        <v>391.2640560507306</v>
       </c>
       <c r="O33" t="n">
-        <v>357.9301716484929</v>
+        <v>128.0884158466284</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33734,28 +33734,28 @@
         <v>51.79552505098292</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>142.1308796335316</v>
       </c>
       <c r="K36" t="n">
         <v>242.9243115671386</v>
       </c>
       <c r="L36" t="n">
-        <v>67.83825021698232</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>381.1754754388895</v>
       </c>
       <c r="N36" t="n">
-        <v>391.2640560507306</v>
+        <v>276.428160330221</v>
       </c>
       <c r="O36" t="n">
-        <v>357.9301716484929</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>192.0327338960263</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>93.40349714926298</v>
@@ -33980,19 +33980,19 @@
         <v>326.6417156240648</v>
       </c>
       <c r="M39" t="n">
-        <v>381.1754754388895</v>
+        <v>94.58297938689742</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>357.9301716484929</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>287.2705184292604</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>192.0327338960263</v>
       </c>
       <c r="R39" t="n">
         <v>93.40349714926298</v>
@@ -34211,16 +34211,16 @@
         <v>142.1308796335316</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>242.9243115671386</v>
       </c>
       <c r="L42" t="n">
-        <v>326.6417156240648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>381.1754754388895</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>13.58819603223424</v>
+        <v>107.6407302245909</v>
       </c>
       <c r="O42" t="n">
         <v>357.9301716484929</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.811676551114391</v>
+        <v>2.811676551114392</v>
       </c>
       <c r="H44" t="n">
         <v>28.79508247910027</v>
@@ -34372,10 +34372,10 @@
         <v>357.6558010888176</v>
       </c>
       <c r="L44" t="n">
-        <v>443.7036473399847</v>
+        <v>443.7036473399848</v>
       </c>
       <c r="M44" t="n">
-        <v>493.7058002058652</v>
+        <v>493.7058002058653</v>
       </c>
       <c r="N44" t="n">
         <v>501.6944762067191</v>
@@ -34393,7 +34393,7 @@
         <v>176.6189771539395</v>
       </c>
       <c r="S44" t="n">
-        <v>64.07107940851925</v>
+        <v>64.07107940851927</v>
       </c>
       <c r="T44" t="n">
         <v>12.30811410250326</v>
@@ -34439,46 +34439,46 @@
         <v>1.504379581098612</v>
       </c>
       <c r="H45" t="n">
-        <v>14.52913963850501</v>
+        <v>14.52913963850502</v>
       </c>
       <c r="I45" t="n">
-        <v>51.79552505098291</v>
+        <v>51.79552505098292</v>
       </c>
       <c r="J45" t="n">
-        <v>142.1308796335316</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>242.9243115671385</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>326.6417156240648</v>
       </c>
       <c r="M45" t="n">
-        <v>381.1754754388894</v>
+        <v>381.1754754388895</v>
       </c>
       <c r="N45" t="n">
-        <v>391.2640560507306</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>357.9301716484929</v>
+        <v>334.0950445805685</v>
       </c>
       <c r="P45" t="n">
-        <v>287.2705184292603</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>192.0327338960263</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>93.40349714926296</v>
+        <v>93.40349714926298</v>
       </c>
       <c r="S45" t="n">
         <v>27.94319090330095</v>
       </c>
       <c r="T45" t="n">
-        <v>6.063705416796594</v>
+        <v>6.063705416796595</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0989723408617508</v>
+        <v>0.09897234086175082</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.261221305407665</v>
+        <v>1.261221305407666</v>
       </c>
       <c r="H46" t="n">
         <v>11.21340396989725</v>
       </c>
       <c r="I46" t="n">
-        <v>37.9283643480778</v>
+        <v>37.92836434807781</v>
       </c>
       <c r="J46" t="n">
-        <v>89.16834629232193</v>
+        <v>89.16834629232194</v>
       </c>
       <c r="K46" t="n">
         <v>146.5309843919087</v>
@@ -34548,16 +34548,16 @@
         <v>105.6100858555455</v>
       </c>
       <c r="R46" t="n">
-        <v>56.70909615042101</v>
+        <v>56.70909615042102</v>
       </c>
       <c r="S46" t="n">
         <v>21.97964765878631</v>
       </c>
       <c r="T46" t="n">
-        <v>5.388854668560023</v>
+        <v>5.388854668560024</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06879388938587273</v>
+        <v>0.06879388938587275</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770696</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>239.0414415168711</v>
+        <v>329.0185193430204</v>
       </c>
       <c r="N12" t="n">
         <v>739.2647183109509</v>
@@ -35507,7 +35507,7 @@
         <v>471.7588796548673</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.0725914759767</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>141.3842883072737</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>369.5481096053581</v>
       </c>
       <c r="L15" t="n">
-        <v>250.974268692288</v>
+        <v>558.9276811476498</v>
       </c>
       <c r="M15" t="n">
-        <v>239.0414415168711</v>
+        <v>462.5002160770005</v>
       </c>
       <c r="N15" t="n">
-        <v>739.2647183109509</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>609.196246480778</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>471.7588796548673</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>262.1282475458539</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>226.6882433255329</v>
+        <v>226.6882433255328</v>
       </c>
       <c r="K17" t="n">
-        <v>461.7113626150019</v>
+        <v>461.7113626150018</v>
       </c>
       <c r="L17" t="n">
-        <v>625.5984469204481</v>
+        <v>625.5984469204479</v>
       </c>
       <c r="M17" t="n">
         <v>712.8731004714251</v>
@@ -35896,16 +35896,16 @@
         <v>709.6283370221124</v>
       </c>
       <c r="O17" t="n">
-        <v>624.4378373426341</v>
+        <v>624.437837342634</v>
       </c>
       <c r="P17" t="n">
-        <v>494.8883150621519</v>
+        <v>494.8883150621518</v>
       </c>
       <c r="Q17" t="n">
         <v>293.6387369446097</v>
       </c>
       <c r="R17" t="n">
-        <v>26.74985921278991</v>
+        <v>26.74985921278989</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>141.3842883072737</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>369.5481096053581</v>
       </c>
       <c r="L18" t="n">
-        <v>558.9276811476499</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>704.7465052668711</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>694.5243362402688</v>
       </c>
       <c r="O18" t="n">
-        <v>494.8099126716401</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>471.7588796548674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>215.0992364297431</v>
       </c>
       <c r="M19" t="n">
-        <v>237.2860494086077</v>
+        <v>237.2860494086076</v>
       </c>
       <c r="N19" t="n">
         <v>237.1334290512945</v>
@@ -36060,7 +36060,7 @@
         <v>149.8175433298351</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.44804260385116</v>
+        <v>19.44804260385114</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>487.6132227820809</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>640.8021872174733</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>739.2647183109509</v>
       </c>
       <c r="O21" t="n">
-        <v>609.196246480778</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>471.7588796548673</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>262.1282475458539</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>141.3842883072737</v>
       </c>
       <c r="K24" t="n">
-        <v>292.7502054190634</v>
+        <v>369.5481096053581</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>558.9276811476498</v>
       </c>
       <c r="M24" t="n">
-        <v>704.7465052668711</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>739.2647183109509</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>609.196246480778</v>
+        <v>582.2279949773305</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>141.3842883072737</v>
+        <v>15.29325296686491</v>
       </c>
       <c r="K27" t="n">
-        <v>369.5481096053581</v>
+        <v>105.0828725927796</v>
       </c>
       <c r="L27" t="n">
         <v>558.9276811476498</v>
       </c>
       <c r="M27" t="n">
-        <v>485.9688604778615</v>
+        <v>345.1317986772905</v>
       </c>
       <c r="N27" t="n">
-        <v>259.9223439673973</v>
+        <v>739.2647183109509</v>
       </c>
       <c r="O27" t="n">
         <v>609.196246480778</v>
@@ -36692,7 +36692,7 @@
         <v>153.2961110149301</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>52.05095981000483</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>369.5481096053581</v>
       </c>
       <c r="L30" t="n">
-        <v>268.4648527162858</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>704.7465052668711</v>
       </c>
       <c r="N30" t="n">
-        <v>739.2647183109509</v>
+        <v>478.5425924684547</v>
       </c>
       <c r="O30" t="n">
-        <v>215.3339272040485</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>471.7588796548673</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.05095981000483</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.03968858806981</v>
+        <v>40.03968858806986</v>
       </c>
       <c r="K31" t="n">
-        <v>168.4920149784465</v>
+        <v>168.4920149784466</v>
       </c>
       <c r="L31" t="n">
         <v>259.3297588421638</v>
@@ -36999,16 +36999,16 @@
         <v>281.5165718210283</v>
       </c>
       <c r="N31" t="n">
-        <v>281.3639514637151</v>
+        <v>281.3639514637152</v>
       </c>
       <c r="O31" t="n">
-        <v>247.0835490217184</v>
+        <v>247.0835490217185</v>
       </c>
       <c r="P31" t="n">
-        <v>194.0480657422557</v>
+        <v>194.0480657422558</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.67856501627178</v>
+        <v>63.67856501627183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>188.0873358441906</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>704.7465052668711</v>
       </c>
       <c r="N33" t="n">
-        <v>738.1099534140875</v>
+        <v>739.2647183109509</v>
       </c>
       <c r="O33" t="n">
-        <v>609.196246480778</v>
+        <v>379.3544906789135</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>40.03968858806977</v>
+        <v>40.03968858806986</v>
       </c>
       <c r="K34" t="n">
-        <v>168.4920149784465</v>
+        <v>168.4920149784466</v>
       </c>
       <c r="L34" t="n">
-        <v>259.3297588421637</v>
+        <v>259.3297588421638</v>
       </c>
       <c r="M34" t="n">
         <v>281.5165718210283</v>
       </c>
       <c r="N34" t="n">
-        <v>281.3639514637151</v>
+        <v>281.3639514637152</v>
       </c>
       <c r="O34" t="n">
-        <v>247.0835490217184</v>
+        <v>247.0835490217185</v>
       </c>
       <c r="P34" t="n">
-        <v>194.0480657422557</v>
+        <v>194.0480657422558</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.67856501627174</v>
+        <v>63.67856501627183</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>141.3842883072737</v>
       </c>
       <c r="K36" t="n">
         <v>369.5481096053581</v>
       </c>
       <c r="L36" t="n">
-        <v>300.1242157405673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>704.7465052668711</v>
       </c>
       <c r="N36" t="n">
-        <v>739.2647183109509</v>
+        <v>624.4288225904412</v>
       </c>
       <c r="O36" t="n">
-        <v>609.196246480778</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.05095981000483</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.03968858806977</v>
+        <v>40.03968858806986</v>
       </c>
       <c r="K37" t="n">
-        <v>168.4920149784465</v>
+        <v>168.4920149784466</v>
       </c>
       <c r="L37" t="n">
-        <v>259.3297588421637</v>
+        <v>259.3297588421638</v>
       </c>
       <c r="M37" t="n">
         <v>281.5165718210283</v>
       </c>
       <c r="N37" t="n">
-        <v>281.3639514637151</v>
+        <v>281.3639514637152</v>
       </c>
       <c r="O37" t="n">
-        <v>247.0835490217184</v>
+        <v>247.0835490217185</v>
       </c>
       <c r="P37" t="n">
-        <v>194.0480657422557</v>
+        <v>194.0480657422558</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.67856501627174</v>
+        <v>63.67856501627183</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>558.9276811476498</v>
       </c>
       <c r="M39" t="n">
-        <v>646.1188907391421</v>
+        <v>418.154009214879</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>215.3339272040485</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>471.7588796548673</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>262.1282475458539</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.03968858806977</v>
+        <v>40.03968858806986</v>
       </c>
       <c r="K40" t="n">
-        <v>168.4920149784465</v>
+        <v>168.4920149784466</v>
       </c>
       <c r="L40" t="n">
-        <v>259.3297588421637</v>
+        <v>259.3297588421638</v>
       </c>
       <c r="M40" t="n">
         <v>281.5165718210283</v>
       </c>
       <c r="N40" t="n">
-        <v>281.3639514637151</v>
+        <v>281.3639514637152</v>
       </c>
       <c r="O40" t="n">
-        <v>247.0835490217184</v>
+        <v>247.0835490217185</v>
       </c>
       <c r="P40" t="n">
-        <v>194.0480657422557</v>
+        <v>194.0480657422558</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.67856501627174</v>
+        <v>63.67856501627183</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>141.3842883072737</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>369.5481096053581</v>
       </c>
       <c r="L42" t="n">
-        <v>188.0873358441906</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>704.7465052668711</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>361.5888582924545</v>
+        <v>455.6413924848111</v>
       </c>
       <c r="O42" t="n">
         <v>609.196246480778</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.03968858806977</v>
+        <v>40.03968858806986</v>
       </c>
       <c r="K43" t="n">
-        <v>168.4920149784465</v>
+        <v>168.4920149784466</v>
       </c>
       <c r="L43" t="n">
-        <v>259.3297588421637</v>
+        <v>259.3297588421638</v>
       </c>
       <c r="M43" t="n">
         <v>281.5165718210283</v>
       </c>
       <c r="N43" t="n">
-        <v>281.3639514637151</v>
+        <v>281.3639514637152</v>
       </c>
       <c r="O43" t="n">
-        <v>247.0835490217184</v>
+        <v>247.0835490217185</v>
       </c>
       <c r="P43" t="n">
-        <v>194.0480657422557</v>
+        <v>194.0480657422558</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.67856501627174</v>
+        <v>63.67856501627183</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>226.6882433255328</v>
       </c>
       <c r="K44" t="n">
-        <v>461.7113626150017</v>
+        <v>461.7113626150018</v>
       </c>
       <c r="L44" t="n">
         <v>625.5984469204479</v>
       </c>
       <c r="M44" t="n">
-        <v>712.873100471425</v>
+        <v>712.8731004714251</v>
       </c>
       <c r="N44" t="n">
-        <v>709.6283370221123</v>
+        <v>709.6283370221124</v>
       </c>
       <c r="O44" t="n">
-        <v>624.4378373426339</v>
+        <v>624.437837342634</v>
       </c>
       <c r="P44" t="n">
         <v>494.8883150621518</v>
@@ -38038,7 +38038,7 @@
         <v>293.6387369446097</v>
       </c>
       <c r="R44" t="n">
-        <v>26.74985921278986</v>
+        <v>26.74985921278979</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>141.3842883072737</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>369.5481096053581</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>188.0873358441906</v>
+        <v>558.9276811476498</v>
       </c>
       <c r="M45" t="n">
-        <v>239.0414415168711</v>
+        <v>704.7465052668711</v>
       </c>
       <c r="N45" t="n">
-        <v>297.0990920460559</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>609.196246480778</v>
+        <v>585.3611194128536</v>
       </c>
       <c r="P45" t="n">
-        <v>471.7588796548673</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>262.1282475458539</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>202.8530266092978</v>
       </c>
       <c r="P46" t="n">
-        <v>149.817543329835</v>
+        <v>149.8175433298351</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.44804260385112</v>
+        <v>19.44804260385114</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2786394.911532852</v>
+        <v>2779222.056894568</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>729217.9658298293</v>
+        <v>613135.7413182589</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16.9794054976106</v>
       </c>
       <c r="D2" t="n">
-        <v>227.7664834517758</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>92.40943888519696</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>40.51412635613365</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>91.07068316743401</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>387.3948401441545</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>387.3948401441545</v>
+        <v>14.77699516265575</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>31.14524590793515</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3035935196382</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>120.7638961374872</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078369</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896018</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>24.17155353671813</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9228757021759</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>122.306153583375</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.42847837627478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>150.6340975826221</v>
       </c>
       <c r="H8" t="n">
-        <v>53.35838691088093</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>20.91893894465487</v>
       </c>
       <c r="D10" t="n">
-        <v>127.0075787948422</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4231839866233</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>85.29325318978631</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274117</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.078595249799</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V16" t="n">
-        <v>27.88878396730068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5.562624396424889</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>78.46129407658275</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4.016968235366728</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>178.0344873527949</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>236.3848627175726</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>53.47538911626143</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>180.6645312963699</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>237.9664329516408</v>
+        <v>204.1339593669623</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417108</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>36.54970694795704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>104.8795979880445</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>82.7084108535328</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.77251716083951</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4033,10 +4033,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>184.3016056082882</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1052.968135806666</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="C2" t="n">
-        <v>1052.968135806666</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="D2" t="n">
-        <v>822.9009808048727</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="E2" t="n">
-        <v>822.9009808048727</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="F2" t="n">
-        <v>556.9999364092498</v>
+        <v>291.098892013627</v>
       </c>
       <c r="G2" t="n">
-        <v>291.0988920136271</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800421</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4336,19 +4336,19 @@
         <v>135.7250809573682</v>
       </c>
       <c r="L2" t="n">
-        <v>330.254671414236</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885138</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q2" t="n">
         <v>1052.968135806666</v>
@@ -4360,22 +4360,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806666</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806666</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="X2" t="n">
-        <v>1052.968135806666</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.968135806666</v>
+        <v>574.1508510533009</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>454.5474124438791</v>
+        <v>843.8294388309079</v>
       </c>
       <c r="C3" t="n">
-        <v>454.5474124438791</v>
+        <v>669.3764095497809</v>
       </c>
       <c r="D3" t="n">
-        <v>454.5474124438791</v>
+        <v>520.4419998885296</v>
       </c>
       <c r="E3" t="n">
-        <v>454.5474124438791</v>
+        <v>361.204544883074</v>
       </c>
       <c r="F3" t="n">
         <v>361.204544883074</v>
@@ -4412,22 +4412,22 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>146.4169227739707</v>
       </c>
       <c r="L3" t="n">
-        <v>384.2933387675626</v>
+        <v>376.3800286423199</v>
       </c>
       <c r="M3" t="n">
-        <v>384.2933387675626</v>
+        <v>552.1766855960238</v>
       </c>
       <c r="N3" t="n">
-        <v>612.2133470446056</v>
+        <v>552.1766855960238</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285679</v>
+        <v>800.9300996799861</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>983.5735772933371</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
@@ -4439,22 +4439,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T3" t="n">
-        <v>850.9830782217423</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U3" t="n">
-        <v>622.7627494639471</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V3" t="n">
-        <v>622.7627494639471</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W3" t="n">
-        <v>622.7627494639471</v>
+        <v>1012.044775850976</v>
       </c>
       <c r="X3" t="n">
-        <v>622.7627494639471</v>
+        <v>1012.044775850976</v>
       </c>
       <c r="Y3" t="n">
-        <v>622.7627494639471</v>
+        <v>1012.044775850976</v>
       </c>
     </row>
     <row r="4">
@@ -4494,7 +4494,7 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360295</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M4" t="n">
         <v>100.1098670955239</v>
@@ -4506,34 +4506,34 @@
         <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>905.5980149446061</v>
+        <v>796.917296905787</v>
       </c>
       <c r="C5" t="n">
-        <v>813.607425886592</v>
+        <v>796.917296905787</v>
       </c>
       <c r="D5" t="n">
-        <v>813.607425886592</v>
+        <v>438.6515982990364</v>
       </c>
       <c r="E5" t="n">
-        <v>813.607425886592</v>
+        <v>52.86334570079217</v>
       </c>
       <c r="F5" t="n">
-        <v>422.2995065490622</v>
+        <v>45.9178449515887</v>
       </c>
       <c r="G5" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="H5" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931802</v>
+        <v>63.33729848931807</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817365</v>
+        <v>232.5599391817367</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923825</v>
+        <v>494.7722161923828</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365685</v>
+        <v>803.1404427365691</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029482</v>
+        <v>1101.866392029483</v>
       </c>
       <c r="O5" t="n">
         <v>1338.757197245513</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927382</v>
+        <v>1503.263635927383</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576618</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="R5" t="n">
-        <v>1549.579360576618</v>
+        <v>1518.119516225169</v>
       </c>
       <c r="S5" t="n">
-        <v>1549.579360576618</v>
+        <v>1518.119516225169</v>
       </c>
       <c r="T5" t="n">
-        <v>1549.579360576618</v>
+        <v>1518.119516225169</v>
       </c>
       <c r="U5" t="n">
-        <v>1295.737346920418</v>
+        <v>1518.119516225169</v>
       </c>
       <c r="V5" t="n">
-        <v>1295.737346920418</v>
+        <v>1187.056628881599</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.737346920418</v>
+        <v>1187.056628881599</v>
       </c>
       <c r="X5" t="n">
-        <v>1295.737346920418</v>
+        <v>1187.056628881599</v>
       </c>
       <c r="Y5" t="n">
-        <v>905.5980149446061</v>
+        <v>796.917296905787</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179.9259968727836</v>
+        <v>476.36275962612</v>
       </c>
       <c r="C6" t="n">
-        <v>179.9259968727836</v>
+        <v>301.9097303449929</v>
       </c>
       <c r="D6" t="n">
-        <v>30.99158721153236</v>
+        <v>152.9753206837416</v>
       </c>
       <c r="E6" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="F6" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="G6" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="H6" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="J6" t="n">
-        <v>44.2024792912147</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="K6" t="n">
-        <v>214.5290963329466</v>
+        <v>156.3491472693698</v>
       </c>
       <c r="L6" t="n">
-        <v>504.9586488424587</v>
+        <v>386.3122531377189</v>
       </c>
       <c r="M6" t="n">
-        <v>825.2939683721605</v>
+        <v>706.6475726674207</v>
       </c>
       <c r="N6" t="n">
-        <v>1208.814860114873</v>
+        <v>1051.168228305039</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.814860114873</v>
+        <v>1297.541324449939</v>
       </c>
       <c r="P6" t="n">
-        <v>1444.636565258028</v>
+        <v>1480.18480206329</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576618</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697039</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="S6" t="n">
-        <v>1297.911733212592</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="T6" t="n">
-        <v>1273.496022569443</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="U6" t="n">
-        <v>1045.29109761775</v>
+        <v>1549.579360576619</v>
       </c>
       <c r="V6" t="n">
-        <v>810.1389893860071</v>
+        <v>1314.427252344876</v>
       </c>
       <c r="W6" t="n">
-        <v>555.9016326578055</v>
+        <v>1060.189895616675</v>
       </c>
       <c r="X6" t="n">
-        <v>555.9016326578055</v>
+        <v>852.3383954111418</v>
       </c>
       <c r="Y6" t="n">
-        <v>348.1413338928517</v>
+        <v>644.578096646188</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="C7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="D7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="E7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="F7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153238</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177033</v>
+        <v>36.06994770177039</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391485</v>
+        <v>98.09493531391496</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004511</v>
+        <v>173.8807113004513</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454189</v>
+        <v>253.2990873454191</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451036</v>
+        <v>310.6385163451039</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179081</v>
+        <v>336.1816213179084</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.1816213179081</v>
+        <v>336.1816213179084</v>
       </c>
       <c r="R7" t="n">
-        <v>336.1816213179081</v>
+        <v>336.1816213179084</v>
       </c>
       <c r="S7" t="n">
-        <v>336.1816213179081</v>
+        <v>336.1816213179084</v>
       </c>
       <c r="T7" t="n">
-        <v>336.1816213179081</v>
+        <v>336.1816213179084</v>
       </c>
       <c r="U7" t="n">
-        <v>336.1816213179081</v>
+        <v>336.1816213179084</v>
       </c>
       <c r="V7" t="n">
-        <v>336.1816213179081</v>
+        <v>212.6400520417721</v>
       </c>
       <c r="W7" t="n">
-        <v>336.1816213179081</v>
+        <v>212.6400520417721</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1920704198907</v>
+        <v>212.6400520417721</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.99158721153236</v>
+        <v>212.6400520417721</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1448.521729839487</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="C8" t="n">
-        <v>1448.521729839487</v>
+        <v>1688.333211902825</v>
       </c>
       <c r="D8" t="n">
-        <v>1090.256031232737</v>
+        <v>1330.067513296074</v>
       </c>
       <c r="E8" t="n">
-        <v>1090.256031232737</v>
+        <v>944.2792606978298</v>
       </c>
       <c r="F8" t="n">
-        <v>679.2701264431294</v>
+        <v>533.2933559082223</v>
       </c>
       <c r="G8" t="n">
-        <v>261.3063183413162</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224088</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4822,7 +4822,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.521729839487</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>227.8899898843839</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C10" t="n">
-        <v>227.8899898843839</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323015</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323015</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323015</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323015</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323015</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146236</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146236</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146236</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146236</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.5384547146236</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5026,16 +5026,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>2375.989236263798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>2501.346796321636</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>3039.321434273717</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>3807.689580666179</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N12" t="n">
-        <v>4612.10115893033</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O12" t="n">
-        <v>4860.854573014292</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="P12" t="n">
-        <v>4860.854573014292</v>
+        <v>2417.536709705118</v>
       </c>
       <c r="Q12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>502.7260840420538</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C13" t="n">
-        <v>333.7899011141469</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1133.156678913841</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X13" t="n">
-        <v>905.1671280158237</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y13" t="n">
-        <v>684.3745488722935</v>
+        <v>727.1135926675564</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>469.3397794245873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>789.6750989542891</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N15" t="n">
-        <v>1594.08667721844</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O15" t="n">
-        <v>2263.550438521099</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2522.104055032908</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>935.9652529689267</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>646.5480829319661</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>646.5480829319661</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.7555037884359</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,13 +5536,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,7 +5551,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>642.5710836830572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>1410.939230075519</v>
+        <v>629.3975440735811</v>
       </c>
       <c r="N18" t="n">
-        <v>1755.459885713137</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.8359039819272</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>102.8359039819272</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1419.662438157314</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1419.662438157314</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1419.662438157314</v>
       </c>
       <c r="U19" t="n">
-        <v>874.927113122792</v>
+        <v>1419.662438157314</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169051</v>
+        <v>1164.977949951427</v>
       </c>
       <c r="W19" t="n">
-        <v>330.8254548799445</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="X19" t="n">
-        <v>102.8359039819272</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.8359039819272</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="20">
@@ -5737,7 +5737,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>1318.370476901345</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N21" t="n">
-        <v>2122.782055165496</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.4452354807079</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C22" t="n">
-        <v>415.509052552801</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1383.78362344764</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1383.78362344764</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1094.654984661199</v>
+        <v>1319.083455050029</v>
       </c>
       <c r="V22" t="n">
-        <v>1094.654984661199</v>
+        <v>1319.083455050029</v>
       </c>
       <c r="W22" t="n">
-        <v>805.237814624238</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="X22" t="n">
-        <v>805.237814624238</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.4452354807079</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6031,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>2574.012759825451</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>2803.9758656938</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>3124.311185223502</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>3928.722763487652</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>4598.186524790312</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>4780.830002403663</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1060.223671869846</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>805.539183663959</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>805.539183663959</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>805.539183663959</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6229,19 +6229,19 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181233</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L27" t="n">
-        <v>536.6386031163524</v>
+        <v>381.3300194168667</v>
       </c>
       <c r="M27" t="n">
-        <v>843.9587363963141</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.370314660465</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3922.735262851338</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>3922.735262851338</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>3772.618623439002</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>3624.705529856609</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>3624.705529856609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3624.705529856609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929846</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4660.934562929846</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>4660.934562929846</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="W28" t="n">
-        <v>4371.517392892885</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X28" t="n">
-        <v>4143.527841994868</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y28" t="n">
-        <v>3922.735262851338</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6466,19 +6466,19 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181233</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>452.5377573864724</v>
+        <v>381.3300194168667</v>
       </c>
       <c r="M30" t="n">
-        <v>1220.905903778934</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N30" t="n">
-        <v>2025.317482043085</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O30" t="n">
-        <v>2274.070896127047</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.6879222525852</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>397.7517393246783</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1258.546136263316</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W31" t="n">
-        <v>969.128966226355</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X31" t="n">
-        <v>969.128966226355</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y31" t="n">
-        <v>748.3363870828249</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181233</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L33" t="n">
-        <v>222.5746515181233</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>990.9427979105849</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.071707946799</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>431.4439433172803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>284.5539958193699</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.787631771461</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>981.7980808734433</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.0055017299131</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6916,13 +6916,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6940,19 +6940,19 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -7019,22 +7019,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>836.471721275012</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M36" t="n">
-        <v>1156.807040804714</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4334.202995919604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507269</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4754.915585147582</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4554.995575063134</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>4554.995575063134</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4554.995575063134</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>4554.995575063134</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>4554.995575063134</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4554.995575063134</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>4334.202995919604</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>264.0657286834809</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L39" t="n">
-        <v>877.9627984403695</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>1646.330944832831</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.330944832831</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>610.8888623175774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>610.8888623175774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>981.7980808734433</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7453,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>2745.388427942954</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>3359.285497699842</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>3679.620817229544</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>4383.101678085227</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O42" t="n">
-        <v>4383.101678085227</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1419.348071405539</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1419.348071405539</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1419.348071405539</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1130.219432619097</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1130.219432619097</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>840.8022625821368</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>612.8127116841194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,58 +7624,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>836.4717212750119</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>1156.807040804714</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>1961.218619068864</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2209.972033152826</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>823.7043836988429</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>823.7043836988429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>595.7148328008255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>595.7148328008255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>319.7064146833354</v>
       </c>
       <c r="N3" t="n">
-        <v>361.563942666205</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>445.5759018009045</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>75.6685423973465</v>
+        <v>391.4579577221215</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415606</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>294.1510202480985</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,16 +8783,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>57.8158298164708</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>339.934866987499</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>67.97860978966168</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9971,13 +9971,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,13 +10208,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,25 +10433,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>385.1174569415969</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,19 +10913,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>222.1713135308538</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,7 +11156,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>122.6728171554333</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>36.40879619531404</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>63.32221982842604</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,7 +23472,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V16" t="n">
-        <v>224.2488593565273</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>143.0528486217875</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>31.50305832721004</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>193.9038417482365</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>108.2028650457824</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24420,16 +24420,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>49.85248968100473</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>95.4384392512747</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>71.47311202745814</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>14.17121037218718</v>
+        <v>48.00368395686567</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>129.9438615154205</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.084754415748293</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>62.71263716939845</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>31.19183524295327</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>67.83603771553976</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065633</v>
+      </c>
+      <c r="F2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="F2" t="n">
-        <v>586543.589606563</v>
-      </c>
       <c r="G2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="L2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="N2" t="n">
         <v>586543.5896065627</v>
@@ -26355,7 +26355,7 @@
         <v>586543.5896065629</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300984</v>
+        <v>138241.1818300986</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133504</v>
+        <v>300621.8974133505</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124996</v>
+        <v>68875.69873124991</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414818</v>
+        <v>31952.95942414828</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179902</v>
+        <v>72609.89266179893</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26420,7 +26420,7 @@
         <v>270946.525915338</v>
       </c>
       <c r="C4" t="n">
-        <v>230940.7002082374</v>
+        <v>230940.7002082373</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26438,16 +26438,16 @@
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759108</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758972</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26472,16 +26472,16 @@
         <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267168</v>
+        <v>60032.1756226717</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184305.9392010921</v>
+        <v>184305.9392010917</v>
       </c>
       <c r="C6" t="n">
-        <v>186567.2697372054</v>
+        <v>186567.2697372049</v>
       </c>
       <c r="D6" t="n">
-        <v>93241.2127408339</v>
+        <v>93241.21274083364</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962614</v>
+        <v>-32366.15776934695</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672705</v>
+        <v>492793.8787075486</v>
       </c>
       <c r="G6" t="n">
-        <v>493768.4699672709</v>
+        <v>492793.8787075486</v>
       </c>
       <c r="H6" t="n">
-        <v>493768.4699672705</v>
+        <v>492793.878707549</v>
       </c>
       <c r="I6" t="n">
-        <v>493768.4699672704</v>
+        <v>492793.8787075487</v>
       </c>
       <c r="J6" t="n">
-        <v>424892.7712360204</v>
+        <v>423918.1799762991</v>
       </c>
       <c r="K6" t="n">
-        <v>461815.5105431224</v>
+        <v>460840.9192834004</v>
       </c>
       <c r="L6" t="n">
-        <v>421158.5773054713</v>
+        <v>420183.9860457497</v>
       </c>
       <c r="M6" t="n">
-        <v>358967.4547334334</v>
+        <v>357992.8634737119</v>
       </c>
       <c r="N6" t="n">
-        <v>493768.4699672703</v>
+        <v>492793.8787075486</v>
       </c>
       <c r="O6" t="n">
-        <v>493768.4699672704</v>
+        <v>492793.8787075487</v>
       </c>
       <c r="P6" t="n">
-        <v>493768.4699672703</v>
+        <v>492793.878707549</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792243</v>
+        <v>130.7784101792245</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441545</v>
+        <v>387.3948401441547</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>107.765027492435</v>
+        <v>107.7650274924351</v>
       </c>
       <c r="D3" t="n">
-        <v>246.965254037862</v>
+        <v>246.9652540378621</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924879</v>
+        <v>124.1528061924881</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104011</v>
+        <v>286.8924326104009</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27038,13 +27038,13 @@
         <v>263.2420339516668</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924879</v>
+        <v>124.1528061924881</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104011</v>
+        <v>286.8924326104006</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924879</v>
+        <v>124.1528061924881</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104011</v>
+        <v>286.8924326104009</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>348.293486273397</v>
       </c>
       <c r="D2" t="n">
-        <v>126.9165581689072</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>151.9681874521648</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921178</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,16 +27460,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.65977350818692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>211.1808568047859</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.99691107496247</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,10 +27560,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27590,7 +27590,7 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>67.93320409404768</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>274.2022086035735</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>19.48120559755694</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>27.38215501850125</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>334.0905432484386</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922222</v>
+        <v>85.69870898428705</v>
       </c>
       <c r="S5" t="n">
         <v>197.0397157291234</v>
@@ -27672,10 +27672,10 @@
         <v>220.7944124161532</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3035935196382</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27697,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>36.88118431791378</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>109.5187078288111</v>
       </c>
       <c r="I6" t="n">
-        <v>79.7116279466329</v>
+        <v>79.71162794663289</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.69274760078366</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.4582034896018</v>
       </c>
       <c r="T6" t="n">
-        <v>174.8593510170213</v>
+        <v>199.0309045537394</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9228757021759</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>148.3584260604898</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300348</v>
+        <v>76.68600477300345</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463152</v>
+        <v>66.41450331463147</v>
       </c>
       <c r="R7" t="n">
         <v>166.6896206108343</v>
       </c>
       <c r="S7" t="n">
-        <v>219.9067257039629</v>
+        <v>219.9067257039628</v>
       </c>
       <c r="T7" t="n">
         <v>226.9379524973924</v>
@@ -27833,16 +27833,16 @@
         <v>286.3061659063093</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>129.831489740453</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.15617497582</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.1500724381729</v>
       </c>
       <c r="H8" t="n">
-        <v>270.5643858534762</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>146.327882153973</v>
       </c>
       <c r="D10" t="n">
-        <v>21.60789422337011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.107776353646526e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019311</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060769</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S2" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125436</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246498</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -31147,22 +31147,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J4" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166679</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471354</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792934</v>
+        <v>0.5257423524792941</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328565</v>
+        <v>5.384258867328573</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395798</v>
+        <v>20.26868204395801</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873947</v>
+        <v>44.62172498873954</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918797</v>
+        <v>66.87639876918807</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887616</v>
+        <v>82.96608628887628</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684977979</v>
+        <v>92.31575684977993</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876159</v>
+        <v>93.80952230876173</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129561</v>
+        <v>88.58167179129575</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446304</v>
+        <v>75.60240746446316</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629833</v>
+        <v>56.77425946629842</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892744</v>
+        <v>33.02516304892749</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712191</v>
+        <v>11.98035385712193</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978108</v>
+        <v>2.301437147978111</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834346</v>
+        <v>0.04205938819834353</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439919</v>
+        <v>0.2812969577439924</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685396</v>
+        <v>2.716736407685401</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782181</v>
+        <v>9.685004904782195</v>
       </c>
       <c r="J6" t="n">
-        <v>14.09092676028042</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272172</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945756</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658325</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709794</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>53.7153813432365</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430325</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185944</v>
+        <v>17.46508655185946</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614235987</v>
+        <v>5.224967614235995</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082143</v>
+        <v>1.133824141082144</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894685</v>
+        <v>0.01850637879894687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953225</v>
+        <v>0.2358299199953229</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594778</v>
+        <v>2.096742379594781</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768429</v>
+        <v>7.092048866768439</v>
       </c>
       <c r="J7" t="n">
-        <v>16.6731753436693</v>
+        <v>16.67317534366933</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672928</v>
+        <v>27.39914888672932</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821368</v>
+        <v>35.06147737821374</v>
       </c>
       <c r="M7" t="n">
-        <v>36.9674119134486</v>
+        <v>36.96741191344866</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437516</v>
+        <v>36.08840948437521</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715705</v>
+        <v>33.33348723715711</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925245</v>
+        <v>28.52255686925249</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706287</v>
+        <v>19.7475399370629</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633513</v>
+        <v>10.60377076633515</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009392</v>
+        <v>4.109872333009398</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889105</v>
+        <v>1.007636930889107</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156306</v>
+        <v>0.01286345018156308</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,19 +31840,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31861,16 +31861,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>138.0224617754458</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>32.3988806362635</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,31 +32314,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>213.9849829127208</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32551,28 +32551,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>121.8179737395016</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>330.1172231204812</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32788,22 +32788,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>115.3101420900734</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -33025,13 +33025,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>54.69678998811276</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724846</v>
@@ -33043,10 +33043,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33262,13 +33262,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>54.69678998811276</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
@@ -33277,16 +33277,16 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>168.5445774098392</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33502,10 +33502,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724846</v>
@@ -33514,7 +33514,7 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33523,7 +33523,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33739,28 +33739,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>315.8821359054327</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>27.57141885216998</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33894,7 +33894,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33973,10 +33973,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33985,19 +33985,19 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>362.5860658768331</v>
+        <v>94.51601612995717</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34450,13 +34450,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>315.8821359054327</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813462</v>
@@ -34465,10 +34465,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194291</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L2" t="n">
         <v>196.494535815018</v>
@@ -34713,7 +34713,7 @@
         <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894758</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P2" t="n">
         <v>103.8696448668208</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>177.5723807613171</v>
       </c>
       <c r="N3" t="n">
-        <v>230.2222305828717</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082925</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O4" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412695</v>
+        <v>32.67243563412702</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953722</v>
+        <v>170.9319602953723</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693394</v>
+        <v>264.8608858693395</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153395</v>
+        <v>311.4830571153397</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241548</v>
+        <v>301.743383124155</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323542</v>
+        <v>239.2836416323544</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806762</v>
+        <v>166.1681198806763</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175353</v>
+        <v>46.78356025175361</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13.34433543402256</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.0470879209413</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3631843530425</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N6" t="n">
-        <v>387.3948401441545</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>248.861713277677</v>
       </c>
       <c r="P6" t="n">
-        <v>238.2037425688434</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.0028235541308</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.12965706084643</v>
+        <v>5.129657060846473</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852982</v>
+        <v>62.65150263852988</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528919</v>
+        <v>76.55128887528925</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360374</v>
+        <v>80.2205818636038</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119673</v>
+        <v>57.91861515119678</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414594</v>
+        <v>25.80111613414598</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775188</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>543.4087252041228</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>208.1179754252734</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>264.9092447479955</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>102.4943942860911</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>537.5560127407024</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>622.2985692286072</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>445.3890035674832</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>581.3832979527663</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>241.933940128293</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>317.236314745686</v>
+        <v>286.9827555116977</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>286.9827555116977</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
@@ -36925,10 +36925,10 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>353.0329386354461</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>718.3120303396098</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>548.1681014290177</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>375.5720811123902</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
@@ -37633,16 +37633,16 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>504.5350157719619</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>710.5867281370533</v>
+        <v>442.5166783901774</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>548.1681014290177</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>329.766232086958</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
